--- a/dataRF.xlsx
+++ b/dataRF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\Data\PaperGit\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A36A61-519A-44DE-8E9B-526A2ADFB5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F67788-5634-48DC-B6BD-EFBF962AB49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AD1C715A-03C3-4781-AFB8-61D9FC561390}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="1273">
   <si>
     <t>Variable</t>
   </si>
@@ -3861,6 +3861,12 @@
   </si>
   <si>
     <t>SIDinGDP</t>
+  </si>
+  <si>
+    <t>Коэфф</t>
+  </si>
+  <si>
+    <t>Дельта</t>
   </si>
 </sst>
 </file>
@@ -3872,7 +3878,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0;[Red]#,##0.0;&quot;...&quot;"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3987,6 +3993,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -4146,7 +4159,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyBorder="1">
@@ -4342,6 +4355,16 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4354,16 +4377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="60% — акцент3" xfId="1" builtinId="40"/>
@@ -5244,7 +5258,7 @@
       <c r="E22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="78" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5261,7 +5275,7 @@
       <c r="E23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="74"/>
+      <c r="F23" s="78"/>
     </row>
     <row r="24" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="36" t="s">
@@ -5276,7 +5290,7 @@
       <c r="E24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="74"/>
+      <c r="F24" s="78"/>
     </row>
     <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="36" t="s">
@@ -5291,7 +5305,7 @@
       <c r="E25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="74"/>
+      <c r="F25" s="78"/>
     </row>
     <row r="26" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B26" s="36" t="s">
@@ -5306,7 +5320,7 @@
       <c r="E26" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="74"/>
+      <c r="F26" s="78"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="36" t="s">
@@ -5321,7 +5335,7 @@
       <c r="E27" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="75" t="s">
+      <c r="F27" s="79" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5338,7 +5352,7 @@
       <c r="E28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="75"/>
+      <c r="F28" s="79"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="37" t="s">
@@ -5404,7 +5418,7 @@
       <c r="E32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="76" t="s">
+      <c r="F32" s="80" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5421,7 +5435,7 @@
       <c r="E33" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="77"/>
+      <c r="F33" s="81"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="37" t="s">
@@ -11436,10 +11450,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D507F0-DAE7-49D4-8AA1-4144C616127B}">
-  <dimension ref="A1:AI49"/>
+  <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AD49"/>
+    <sheetView tabSelected="1" topLeftCell="S34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF57" sqref="AF57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11578,67 +11592,67 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="81">
+      <c r="B2" s="77">
         <v>8334.6327818815698</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="I2" s="81">
+      <c r="I2" s="77">
         <v>8791.3861129776506</v>
       </c>
-      <c r="J2" s="81">
+      <c r="J2" s="77">
         <v>8093.1744463876903</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="O2" s="81" t="s">
+      <c r="O2" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="P2" s="81" t="s">
+      <c r="P2" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="Q2" s="81" t="s">
+      <c r="Q2" s="77" t="s">
         <v>249</v>
       </c>
-      <c r="R2" s="81" t="s">
+      <c r="R2" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="S2" s="81" t="s">
+      <c r="S2" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="T2" s="81" t="s">
+      <c r="T2" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="U2" s="81" t="s">
+      <c r="U2" s="77" t="s">
         <v>253</v>
       </c>
       <c r="V2">
@@ -11653,100 +11667,100 @@
       <c r="Y2">
         <v>0</v>
       </c>
-      <c r="Z2" s="81" t="s">
+      <c r="Z2" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="AA2" s="81" t="s">
+      <c r="AA2" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="AB2" s="81" t="s">
+      <c r="AB2" s="77" t="s">
         <v>256</v>
       </c>
       <c r="AC2">
         <v>368065</v>
       </c>
-      <c r="AD2" s="81">
+      <c r="AD2" s="77">
         <v>511.47823199999999</v>
       </c>
-      <c r="AE2" s="81">
+      <c r="AE2" s="77">
         <v>3.65632785515814</v>
       </c>
-      <c r="AF2" s="81">
+      <c r="AF2" s="77">
         <v>1475.152</v>
       </c>
-      <c r="AG2" s="81" t="s">
+      <c r="AG2" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="AH2" s="81" t="s">
+      <c r="AH2" s="77" t="s">
         <v>258</v>
       </c>
-      <c r="AI2" s="81">
+      <c r="AI2" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>4.4247660293048323</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="77" t="s">
         <v>259</v>
       </c>
-      <c r="B3" s="81">
+      <c r="B3" s="77">
         <v>9244.8288207423702</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="77" t="s">
         <v>260</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="77" t="s">
         <v>265</v>
       </c>
-      <c r="I3" s="81">
+      <c r="I3" s="77">
         <v>8306.8409158630602</v>
       </c>
-      <c r="J3" s="81">
+      <c r="J3" s="77">
         <v>8615.46996880201</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="77" t="s">
         <v>266</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="L3" s="77" t="s">
         <v>267</v>
       </c>
-      <c r="M3" s="81" t="s">
+      <c r="M3" s="77" t="s">
         <v>268</v>
       </c>
-      <c r="N3" s="81" t="s">
+      <c r="N3" s="77" t="s">
         <v>269</v>
       </c>
-      <c r="O3" s="81" t="s">
+      <c r="O3" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="P3" s="81" t="s">
+      <c r="P3" s="77" t="s">
         <v>271</v>
       </c>
-      <c r="Q3" s="81" t="s">
+      <c r="Q3" s="77" t="s">
         <v>272</v>
       </c>
-      <c r="R3" s="81" t="s">
+      <c r="R3" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="S3" s="81" t="s">
+      <c r="S3" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="T3" s="81" t="s">
+      <c r="T3" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="U3" s="81" t="s">
+      <c r="U3" s="77" t="s">
         <v>276</v>
       </c>
       <c r="V3">
@@ -11761,100 +11775,100 @@
       <c r="Y3">
         <v>0</v>
       </c>
-      <c r="Z3" s="81" t="s">
+      <c r="Z3" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="AA3" s="81" t="s">
+      <c r="AA3" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="AB3" s="81" t="s">
+      <c r="AB3" s="77" t="s">
         <v>279</v>
       </c>
       <c r="AC3">
         <v>395891</v>
       </c>
-      <c r="AD3" s="81">
+      <c r="AD3" s="77">
         <v>630.14734199999998</v>
       </c>
-      <c r="AE3" s="81">
+      <c r="AE3" s="77">
         <v>4.5350263109702098</v>
       </c>
-      <c r="AF3" s="81">
+      <c r="AF3" s="77">
         <v>1529.309</v>
       </c>
-      <c r="AG3" s="81" t="s">
+      <c r="AG3" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="AH3" s="81" t="s">
+      <c r="AH3" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="AI3" s="81">
+      <c r="AI3" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>4.1355795484518083</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="B4" s="81">
+      <c r="B4" s="77">
         <v>10411.333955988401</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="I4" s="81">
+      <c r="I4" s="77">
         <v>7822.2957187484599</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="77">
         <v>9137.7654912163307</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="77" t="s">
         <v>289</v>
       </c>
-      <c r="L4" s="81" t="s">
+      <c r="L4" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="77" t="s">
         <v>294</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="77" t="s">
         <v>297</v>
       </c>
-      <c r="T4" s="81" t="s">
+      <c r="T4" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="77" t="s">
         <v>299</v>
       </c>
       <c r="V4">
@@ -11869,100 +11883,100 @@
       <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Z4" s="81" t="s">
+      <c r="Z4" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="AA4" s="81" t="s">
+      <c r="AA4" s="77" t="s">
         <v>301</v>
       </c>
-      <c r="AB4" s="81" t="s">
+      <c r="AB4" s="77" t="s">
         <v>302</v>
       </c>
       <c r="AC4">
         <v>394518</v>
       </c>
-      <c r="AD4" s="81">
+      <c r="AD4" s="77">
         <v>766.63428999999996</v>
       </c>
-      <c r="AE4" s="81">
+      <c r="AE4" s="77">
         <v>5.5184703314746599</v>
       </c>
-      <c r="AF4" s="81">
+      <c r="AF4" s="77">
         <v>1763.268</v>
       </c>
-      <c r="AG4" s="81" t="s">
+      <c r="AG4" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="AH4" s="81" t="s">
+      <c r="AH4" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="AI4" s="81">
+      <c r="AI4" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>4.2340107604218229</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="77" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="81">
+      <c r="B5" s="77">
         <v>10816.423016343801</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="77" t="s">
         <v>306</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="77" t="s">
         <v>307</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="77" t="s">
         <v>310</v>
       </c>
-      <c r="I5" s="81">
+      <c r="I5" s="77">
         <v>7337.7505216338704</v>
       </c>
-      <c r="J5" s="81">
+      <c r="J5" s="77">
         <v>9660.0610136306495</v>
       </c>
-      <c r="K5" s="81" t="s">
+      <c r="K5" s="77" t="s">
         <v>311</v>
       </c>
-      <c r="L5" s="81" t="s">
+      <c r="L5" s="77" t="s">
         <v>312</v>
       </c>
-      <c r="M5" s="81" t="s">
+      <c r="M5" s="77" t="s">
         <v>313</v>
       </c>
-      <c r="N5" s="81" t="s">
+      <c r="N5" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="O5" s="81" t="s">
+      <c r="O5" s="77" t="s">
         <v>315</v>
       </c>
-      <c r="P5" s="81" t="s">
+      <c r="P5" s="77" t="s">
         <v>316</v>
       </c>
-      <c r="Q5" s="81" t="s">
+      <c r="Q5" s="77" t="s">
         <v>317</v>
       </c>
-      <c r="R5" s="81" t="s">
+      <c r="R5" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="S5" s="81" t="s">
+      <c r="S5" s="77" t="s">
         <v>319</v>
       </c>
-      <c r="T5" s="81" t="s">
+      <c r="T5" s="77" t="s">
         <v>320</v>
       </c>
-      <c r="U5" s="81" t="s">
+      <c r="U5" s="77" t="s">
         <v>321</v>
       </c>
       <c r="V5">
@@ -11977,100 +11991,100 @@
       <c r="Y5">
         <v>0</v>
       </c>
-      <c r="Z5" s="81" t="s">
+      <c r="Z5" s="77" t="s">
         <v>322</v>
       </c>
-      <c r="AA5" s="81" t="s">
+      <c r="AA5" s="77" t="s">
         <v>323</v>
       </c>
-      <c r="AB5" s="81" t="s">
+      <c r="AB5" s="77" t="s">
         <v>324</v>
       </c>
       <c r="AC5">
         <v>416653</v>
       </c>
-      <c r="AD5" s="81">
+      <c r="AD5" s="77">
         <v>835.13483499999995</v>
       </c>
-      <c r="AE5" s="81">
+      <c r="AE5" s="77">
         <v>6.0185120564355499</v>
       </c>
-      <c r="AF5" s="81">
+      <c r="AF5" s="77">
         <v>2094.7310000000002</v>
       </c>
-      <c r="AG5" s="81" t="s">
+      <c r="AG5" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="AH5" s="81" t="s">
+      <c r="AH5" s="77" t="s">
         <v>326</v>
       </c>
-      <c r="AI5" s="81">
+      <c r="AI5" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>4.8415520473700635</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="77">
         <v>9995.7582587564593</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="77" t="s">
         <v>330</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="77" t="s">
         <v>331</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="77" t="s">
         <v>332</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="77" t="s">
         <v>333</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="77">
         <v>7579.6664829131196</v>
       </c>
-      <c r="J6" s="81">
+      <c r="J6" s="77">
         <v>9774.4093768673101</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="M6" s="81" t="s">
+      <c r="M6" s="77" t="s">
         <v>336</v>
       </c>
-      <c r="N6" s="81" t="s">
+      <c r="N6" s="77" t="s">
         <v>337</v>
       </c>
-      <c r="O6" s="81" t="s">
+      <c r="O6" s="77" t="s">
         <v>338</v>
       </c>
-      <c r="P6" s="81" t="s">
+      <c r="P6" s="77" t="s">
         <v>339</v>
       </c>
-      <c r="Q6" s="81" t="s">
+      <c r="Q6" s="77" t="s">
         <v>340</v>
       </c>
-      <c r="R6" s="81" t="s">
+      <c r="R6" s="77" t="s">
         <v>341</v>
       </c>
-      <c r="S6" s="81" t="s">
+      <c r="S6" s="77" t="s">
         <v>342</v>
       </c>
-      <c r="T6" s="81" t="s">
+      <c r="T6" s="77" t="s">
         <v>343</v>
       </c>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="77" t="s">
         <v>344</v>
       </c>
       <c r="V6">
@@ -12085,100 +12099,100 @@
       <c r="Y6">
         <v>0</v>
       </c>
-      <c r="Z6" s="81" t="s">
+      <c r="Z6" s="77" t="s">
         <v>345</v>
       </c>
-      <c r="AA6" s="81" t="s">
+      <c r="AA6" s="77" t="s">
         <v>346</v>
       </c>
-      <c r="AB6" s="81" t="s">
+      <c r="AB6" s="77" t="s">
         <v>347</v>
       </c>
       <c r="AC6">
         <v>423321</v>
       </c>
-      <c r="AD6" s="81">
+      <c r="AD6" s="77">
         <v>871.64064699999994</v>
       </c>
-      <c r="AE6" s="81">
+      <c r="AE6" s="77">
         <v>6.2290702730462604</v>
       </c>
-      <c r="AF6" s="81">
+      <c r="AF6" s="77">
         <v>2177.067</v>
       </c>
-      <c r="AG6" s="81" t="s">
+      <c r="AG6" s="77" t="s">
         <v>348</v>
       </c>
-      <c r="AH6" s="81" t="s">
+      <c r="AH6" s="77" t="s">
         <v>349</v>
       </c>
-      <c r="AI6" s="81">
+      <c r="AI6" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>5.4449771184013258</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="77" t="s">
         <v>350</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="77">
         <v>10977.0352607229</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="77" t="s">
         <v>351</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="77" t="s">
         <v>352</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="77" t="s">
         <v>353</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="I7" s="81">
+      <c r="I7" s="77">
         <v>7821.5824441923696</v>
       </c>
-      <c r="J7" s="81">
+      <c r="J7" s="77">
         <v>9888.7577401039707</v>
       </c>
-      <c r="K7" s="81" t="s">
+      <c r="K7" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="L7" s="81" t="s">
+      <c r="L7" s="77" t="s">
         <v>358</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="77" t="s">
         <v>359</v>
       </c>
-      <c r="N7" s="81" t="s">
+      <c r="N7" s="77" t="s">
         <v>360</v>
       </c>
-      <c r="O7" s="81" t="s">
+      <c r="O7" s="77" t="s">
         <v>361</v>
       </c>
-      <c r="P7" s="81" t="s">
+      <c r="P7" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="Q7" s="81" t="s">
+      <c r="Q7" s="77" t="s">
         <v>363</v>
       </c>
-      <c r="R7" s="81" t="s">
+      <c r="R7" s="77" t="s">
         <v>364</v>
       </c>
-      <c r="S7" s="81" t="s">
+      <c r="S7" s="77" t="s">
         <v>365</v>
       </c>
-      <c r="T7" s="81" t="s">
+      <c r="T7" s="77" t="s">
         <v>366</v>
       </c>
-      <c r="U7" s="81" t="s">
+      <c r="U7" s="77" t="s">
         <v>367</v>
       </c>
       <c r="V7">
@@ -12193,100 +12207,100 @@
       <c r="Y7">
         <v>0</v>
       </c>
-      <c r="Z7" s="81" t="s">
+      <c r="Z7" s="77" t="s">
         <v>368</v>
       </c>
-      <c r="AA7" s="81" t="s">
+      <c r="AA7" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="AB7" s="81" t="s">
+      <c r="AB7" s="77" t="s">
         <v>370</v>
       </c>
       <c r="AC7">
         <v>432994</v>
       </c>
-      <c r="AD7" s="81">
+      <c r="AD7" s="77">
         <v>921.33866</v>
       </c>
-      <c r="AE7" s="81">
+      <c r="AE7" s="77">
         <v>6.3679578157860401</v>
       </c>
-      <c r="AF7" s="81">
+      <c r="AF7" s="77">
         <v>2228.7489999999998</v>
       </c>
-      <c r="AG7" s="81" t="s">
+      <c r="AG7" s="77" t="s">
         <v>371</v>
       </c>
-      <c r="AH7" s="81" t="s">
+      <c r="AH7" s="77" t="s">
         <v>372</v>
       </c>
-      <c r="AI7" s="81">
+      <c r="AI7" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>5.0759356854184503</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="77">
         <v>12086.463958780199</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="77" t="s">
         <v>374</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="77" t="s">
         <v>375</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="77" t="s">
         <v>330</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="77" t="s">
         <v>376</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="77" t="s">
         <v>378</v>
       </c>
-      <c r="I8" s="81">
+      <c r="I8" s="77">
         <v>8063.4984054716097</v>
       </c>
-      <c r="J8" s="81">
+      <c r="J8" s="77">
         <v>10003.1061033406</v>
       </c>
-      <c r="K8" s="81" t="s">
+      <c r="K8" s="77" t="s">
         <v>379</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="77" t="s">
         <v>380</v>
       </c>
-      <c r="M8" s="81" t="s">
+      <c r="M8" s="77" t="s">
         <v>381</v>
       </c>
-      <c r="N8" s="81" t="s">
+      <c r="N8" s="77" t="s">
         <v>382</v>
       </c>
-      <c r="O8" s="81" t="s">
+      <c r="O8" s="77" t="s">
         <v>383</v>
       </c>
-      <c r="P8" s="81" t="s">
+      <c r="P8" s="77" t="s">
         <v>384</v>
       </c>
-      <c r="Q8" s="81" t="s">
+      <c r="Q8" s="77" t="s">
         <v>385</v>
       </c>
-      <c r="R8" s="81" t="s">
+      <c r="R8" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="S8" s="81" t="s">
+      <c r="S8" s="77" t="s">
         <v>387</v>
       </c>
-      <c r="T8" s="81" t="s">
+      <c r="T8" s="77" t="s">
         <v>388</v>
       </c>
-      <c r="U8" s="81" t="s">
+      <c r="U8" s="77" t="s">
         <v>389</v>
       </c>
       <c r="V8">
@@ -12301,100 +12315,100 @@
       <c r="Y8">
         <v>0</v>
       </c>
-      <c r="Z8" s="81" t="s">
+      <c r="Z8" s="77" t="s">
         <v>390</v>
       </c>
-      <c r="AA8" s="81" t="s">
+      <c r="AA8" s="77" t="s">
         <v>391</v>
       </c>
-      <c r="AB8" s="81" t="s">
+      <c r="AB8" s="77" t="s">
         <v>392</v>
       </c>
       <c r="AC8">
         <v>458319</v>
       </c>
-      <c r="AD8" s="81">
+      <c r="AD8" s="77">
         <v>942.86722599999996</v>
       </c>
-      <c r="AE8" s="81">
+      <c r="AE8" s="77">
         <v>6.2142146293407299</v>
       </c>
-      <c r="AF8" s="81">
+      <c r="AF8" s="77">
         <v>2498.3200000000002</v>
       </c>
-      <c r="AG8" s="81" t="s">
+      <c r="AG8" s="77" t="s">
         <v>393</v>
       </c>
-      <c r="AH8" s="81" t="s">
+      <c r="AH8" s="77" t="s">
         <v>394</v>
       </c>
-      <c r="AI8" s="81">
+      <c r="AI8" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>5.1675990771997009</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="77" t="s">
         <v>395</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="77">
         <v>13249.283711436299</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="77">
         <v>8305.4143667508597</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J9" s="77">
         <v>10117.454466577299</v>
       </c>
-      <c r="K9" s="81" t="s">
+      <c r="K9" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="L9" s="81" t="s">
+      <c r="L9" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="M9" s="81" t="s">
+      <c r="M9" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="N9" s="81" t="s">
+      <c r="N9" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="O9" s="81" t="s">
+      <c r="O9" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="P9" s="81" t="s">
+      <c r="P9" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="Q9" s="81" t="s">
+      <c r="Q9" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="R9" s="81" t="s">
+      <c r="R9" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="S9" s="81" t="s">
+      <c r="S9" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="T9" s="81" t="s">
+      <c r="T9" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="U9" s="81" t="s">
+      <c r="U9" s="77" t="s">
         <v>411</v>
       </c>
       <c r="V9">
@@ -12409,100 +12423,100 @@
       <c r="Y9">
         <v>0</v>
       </c>
-      <c r="Z9" s="81" t="s">
+      <c r="Z9" s="77" t="s">
         <v>412</v>
       </c>
-      <c r="AA9" s="81" t="s">
+      <c r="AA9" s="77" t="s">
         <v>413</v>
       </c>
-      <c r="AB9" s="81" t="s">
+      <c r="AB9" s="77" t="s">
         <v>414</v>
       </c>
       <c r="AC9">
         <v>443591</v>
       </c>
-      <c r="AD9" s="81">
+      <c r="AD9" s="77">
         <v>886.18791899999997</v>
       </c>
-      <c r="AE9" s="81">
+      <c r="AE9" s="77">
         <v>5.5027368423546301</v>
       </c>
-      <c r="AF9" s="81">
+      <c r="AF9" s="77">
         <v>2940.3919999999998</v>
       </c>
-      <c r="AG9" s="81" t="s">
+      <c r="AG9" s="77" t="s">
         <v>415</v>
       </c>
-      <c r="AH9" s="81" t="s">
+      <c r="AH9" s="77" t="s">
         <v>416</v>
       </c>
-      <c r="AI9" s="81">
+      <c r="AI9" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>5.5482093674655797</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="77" t="s">
         <v>417</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="77">
         <v>13024.7995390248</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="77" t="s">
         <v>418</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="77" t="s">
         <v>419</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="77" t="s">
         <v>420</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="77" t="s">
         <v>422</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="I10" s="81">
+      <c r="I10" s="77">
         <v>9070.9739307275704</v>
       </c>
-      <c r="J10" s="81">
+      <c r="J10" s="77">
         <v>10319.495204517299</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="77" t="s">
         <v>423</v>
       </c>
-      <c r="L10" s="81" t="s">
+      <c r="L10" s="77" t="s">
         <v>424</v>
       </c>
-      <c r="M10" s="81" t="s">
+      <c r="M10" s="77" t="s">
         <v>425</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="77" t="s">
         <v>426</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="P10" s="81" t="s">
+      <c r="P10" s="77" t="s">
         <v>428</v>
       </c>
-      <c r="Q10" s="81" t="s">
+      <c r="Q10" s="77" t="s">
         <v>429</v>
       </c>
-      <c r="R10" s="81" t="s">
+      <c r="R10" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="S10" s="81" t="s">
+      <c r="S10" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="T10" s="81" t="s">
+      <c r="T10" s="77" t="s">
         <v>432</v>
       </c>
-      <c r="U10" s="81" t="s">
+      <c r="U10" s="77" t="s">
         <v>433</v>
       </c>
       <c r="V10">
@@ -12517,100 +12531,100 @@
       <c r="Y10">
         <v>0</v>
       </c>
-      <c r="Z10" s="81" t="s">
+      <c r="Z10" s="77" t="s">
         <v>434</v>
       </c>
-      <c r="AA10" s="81" t="s">
+      <c r="AA10" s="77" t="s">
         <v>435</v>
       </c>
-      <c r="AB10" s="81" t="s">
+      <c r="AB10" s="77" t="s">
         <v>436</v>
       </c>
       <c r="AC10">
         <v>465455</v>
       </c>
-      <c r="AD10" s="81">
+      <c r="AD10" s="77">
         <v>891.47734300000002</v>
       </c>
-      <c r="AE10" s="81">
+      <c r="AE10" s="77">
         <v>5.3177979026523801</v>
       </c>
-      <c r="AF10" s="81">
+      <c r="AF10" s="77">
         <v>3219.6030000000001</v>
       </c>
-      <c r="AG10" s="81" t="s">
+      <c r="AG10" s="77" t="s">
         <v>437</v>
       </c>
-      <c r="AH10" s="81" t="s">
+      <c r="AH10" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="AI10" s="81">
+      <c r="AI10" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>6.1797553781028487</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="77" t="s">
         <v>439</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="77">
         <v>14434.822305814299</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="77" t="s">
         <v>440</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="77" t="s">
         <v>441</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="77" t="s">
         <v>442</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="77" t="s">
         <v>443</v>
       </c>
-      <c r="G11" s="81" t="s">
+      <c r="G11" s="77" t="s">
         <v>444</v>
       </c>
-      <c r="H11" s="81" t="s">
+      <c r="H11" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="I11" s="81">
+      <c r="I11" s="77">
         <v>9836.5334947042793</v>
       </c>
-      <c r="J11" s="81">
+      <c r="J11" s="77">
         <v>10521.5359424573</v>
       </c>
-      <c r="K11" s="81" t="s">
+      <c r="K11" s="77" t="s">
         <v>445</v>
       </c>
-      <c r="L11" s="81" t="s">
+      <c r="L11" s="77" t="s">
         <v>446</v>
       </c>
-      <c r="M11" s="81" t="s">
+      <c r="M11" s="77" t="s">
         <v>447</v>
       </c>
-      <c r="N11" s="81" t="s">
+      <c r="N11" s="77" t="s">
         <v>448</v>
       </c>
-      <c r="O11" s="81" t="s">
+      <c r="O11" s="77" t="s">
         <v>449</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="P11" s="77" t="s">
         <v>450</v>
       </c>
-      <c r="Q11" s="81" t="s">
+      <c r="Q11" s="77" t="s">
         <v>451</v>
       </c>
-      <c r="R11" s="81" t="s">
+      <c r="R11" s="77" t="s">
         <v>452</v>
       </c>
-      <c r="S11" s="81" t="s">
+      <c r="S11" s="77" t="s">
         <v>453</v>
       </c>
-      <c r="T11" s="81" t="s">
+      <c r="T11" s="77" t="s">
         <v>454</v>
       </c>
-      <c r="U11" s="81" t="s">
+      <c r="U11" s="77" t="s">
         <v>455</v>
       </c>
       <c r="V11">
@@ -12625,100 +12639,100 @@
       <c r="Y11">
         <v>0</v>
       </c>
-      <c r="Z11" s="81" t="s">
+      <c r="Z11" s="77" t="s">
         <v>456</v>
       </c>
-      <c r="AA11" s="81" t="s">
+      <c r="AA11" s="77" t="s">
         <v>457</v>
       </c>
-      <c r="AB11" s="81" t="s">
+      <c r="AB11" s="77" t="s">
         <v>458</v>
       </c>
       <c r="AC11">
         <v>484015</v>
       </c>
-      <c r="AD11" s="81">
+      <c r="AD11" s="77">
         <v>950.225414</v>
       </c>
-      <c r="AE11" s="81">
+      <c r="AE11" s="77">
         <v>5.3258640103649499</v>
       </c>
-      <c r="AF11" s="81">
+      <c r="AF11" s="77">
         <v>3585.0949999999998</v>
       </c>
-      <c r="AG11" s="81" t="s">
+      <c r="AG11" s="77" t="s">
         <v>459</v>
       </c>
-      <c r="AH11" s="81" t="s">
+      <c r="AH11" s="77" t="s">
         <v>460</v>
       </c>
-      <c r="AI11" s="81">
+      <c r="AI11" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>6.2091083008273946</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="77" t="s">
         <v>461</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="77">
         <v>15745.5835665553</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="77" t="s">
         <v>462</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="77" t="s">
         <v>463</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="77" t="s">
         <v>464</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="77" t="s">
         <v>465</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="77" t="s">
         <v>466</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="I12" s="81">
+      <c r="I12" s="77">
         <v>10602.093058680999</v>
       </c>
-      <c r="J12" s="81">
+      <c r="J12" s="77">
         <v>10723.5766803973</v>
       </c>
-      <c r="K12" s="81" t="s">
+      <c r="K12" s="77" t="s">
         <v>467</v>
       </c>
-      <c r="L12" s="81" t="s">
+      <c r="L12" s="77" t="s">
         <v>468</v>
       </c>
-      <c r="M12" s="81" t="s">
+      <c r="M12" s="77" t="s">
         <v>469</v>
       </c>
-      <c r="N12" s="81" t="s">
+      <c r="N12" s="77" t="s">
         <v>470</v>
       </c>
-      <c r="O12" s="81" t="s">
+      <c r="O12" s="77" t="s">
         <v>471</v>
       </c>
-      <c r="P12" s="81" t="s">
+      <c r="P12" s="77" t="s">
         <v>472</v>
       </c>
-      <c r="Q12" s="81" t="s">
+      <c r="Q12" s="77" t="s">
         <v>473</v>
       </c>
-      <c r="R12" s="81" t="s">
+      <c r="R12" s="77" t="s">
         <v>474</v>
       </c>
-      <c r="S12" s="81" t="s">
+      <c r="S12" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="T12" s="81" t="s">
+      <c r="T12" s="77" t="s">
         <v>475</v>
       </c>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="77" t="s">
         <v>476</v>
       </c>
       <c r="V12">
@@ -12733,100 +12747,100 @@
       <c r="Y12">
         <v>0</v>
       </c>
-      <c r="Z12" s="81" t="s">
+      <c r="Z12" s="77" t="s">
         <v>477</v>
       </c>
-      <c r="AA12" s="81" t="s">
+      <c r="AA12" s="77" t="s">
         <v>478</v>
       </c>
-      <c r="AB12" s="81" t="s">
+      <c r="AB12" s="77" t="s">
         <v>479</v>
       </c>
       <c r="AC12">
         <v>472496</v>
       </c>
-      <c r="AD12" s="81">
+      <c r="AD12" s="77">
         <v>1005.569972</v>
       </c>
-      <c r="AE12" s="81">
+      <c r="AE12" s="77">
         <v>5.1531284505535604</v>
       </c>
-      <c r="AF12" s="81">
+      <c r="AF12" s="77">
         <v>3995.038</v>
       </c>
-      <c r="AG12" s="81" t="s">
+      <c r="AG12" s="77" t="s">
         <v>480</v>
       </c>
-      <c r="AH12" s="81" t="s">
+      <c r="AH12" s="77" t="s">
         <v>481</v>
       </c>
-      <c r="AI12" s="81">
+      <c r="AI12" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>6.3431088201864663</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="77" t="s">
         <v>482</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="77">
         <v>16908.795427019799</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="77" t="s">
         <v>483</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="77" t="s">
         <v>484</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="77" t="s">
         <v>464</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="77" t="s">
         <v>485</v>
       </c>
-      <c r="G13" s="81" t="s">
+      <c r="G13" s="77" t="s">
         <v>486</v>
       </c>
-      <c r="H13" s="81" t="s">
+      <c r="H13" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="I13" s="81">
+      <c r="I13" s="77">
         <v>11367.652622657701</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="77">
         <v>10925.6174183373</v>
       </c>
-      <c r="K13" s="81" t="s">
+      <c r="K13" s="77" t="s">
         <v>487</v>
       </c>
-      <c r="L13" s="81" t="s">
+      <c r="L13" s="77" t="s">
         <v>488</v>
       </c>
-      <c r="M13" s="81" t="s">
+      <c r="M13" s="77" t="s">
         <v>489</v>
       </c>
-      <c r="N13" s="81" t="s">
+      <c r="N13" s="77" t="s">
         <v>490</v>
       </c>
-      <c r="O13" s="81" t="s">
+      <c r="O13" s="77" t="s">
         <v>491</v>
       </c>
-      <c r="P13" s="81" t="s">
+      <c r="P13" s="77" t="s">
         <v>492</v>
       </c>
-      <c r="Q13" s="81" t="s">
+      <c r="Q13" s="77" t="s">
         <v>493</v>
       </c>
-      <c r="R13" s="81" t="s">
+      <c r="R13" s="77" t="s">
         <v>494</v>
       </c>
-      <c r="S13" s="81" t="s">
+      <c r="S13" s="77" t="s">
         <v>495</v>
       </c>
-      <c r="T13" s="81" t="s">
+      <c r="T13" s="77" t="s">
         <v>496</v>
       </c>
-      <c r="U13" s="81" t="s">
+      <c r="U13" s="77" t="s">
         <v>497</v>
       </c>
       <c r="V13">
@@ -12841,100 +12855,100 @@
       <c r="Y13">
         <v>0</v>
       </c>
-      <c r="Z13" s="81" t="s">
+      <c r="Z13" s="77" t="s">
         <v>498</v>
       </c>
-      <c r="AA13" s="81" t="s">
+      <c r="AA13" s="77" t="s">
         <v>499</v>
       </c>
-      <c r="AB13" s="81" t="s">
+      <c r="AB13" s="77" t="s">
         <v>500</v>
       </c>
       <c r="AC13">
         <v>453952</v>
       </c>
-      <c r="AD13" s="81">
+      <c r="AD13" s="77">
         <v>994.10333800000001</v>
       </c>
-      <c r="AE13" s="81">
+      <c r="AE13" s="77">
         <v>4.6489196364022698</v>
       </c>
-      <c r="AF13" s="81">
+      <c r="AF13" s="77">
         <v>4190.5529999999999</v>
       </c>
-      <c r="AG13" s="81" t="s">
+      <c r="AG13" s="77" t="s">
         <v>501</v>
       </c>
-      <c r="AH13" s="81" t="s">
+      <c r="AH13" s="77" t="s">
         <v>502</v>
       </c>
-      <c r="AI13" s="81">
+      <c r="AI13" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>6.1958183509979801</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="77" t="s">
         <v>503</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="77">
         <v>15182.7763973366</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="77" t="s">
         <v>504</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="77" t="s">
         <v>505</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="77" t="s">
         <v>464</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="77" t="s">
         <v>506</v>
       </c>
-      <c r="G14" s="81" t="s">
+      <c r="G14" s="77" t="s">
         <v>507</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="77" t="s">
         <v>508</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I14" s="77">
         <v>11739.624622273201</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J14" s="77">
         <v>11417.959750420099</v>
       </c>
-      <c r="K14" s="81" t="s">
+      <c r="K14" s="77" t="s">
         <v>509</v>
       </c>
-      <c r="L14" s="81" t="s">
+      <c r="L14" s="77" t="s">
         <v>510</v>
       </c>
-      <c r="M14" s="81" t="s">
+      <c r="M14" s="77" t="s">
         <v>511</v>
       </c>
-      <c r="N14" s="81" t="s">
+      <c r="N14" s="77" t="s">
         <v>512</v>
       </c>
-      <c r="O14" s="81" t="s">
+      <c r="O14" s="77" t="s">
         <v>513</v>
       </c>
-      <c r="P14" s="81" t="s">
+      <c r="P14" s="77" t="s">
         <v>514</v>
       </c>
-      <c r="Q14" s="81" t="s">
+      <c r="Q14" s="77" t="s">
         <v>515</v>
       </c>
-      <c r="R14" s="81" t="s">
+      <c r="R14" s="77" t="s">
         <v>516</v>
       </c>
-      <c r="S14" s="81" t="s">
+      <c r="S14" s="77" t="s">
         <v>517</v>
       </c>
-      <c r="T14" s="81" t="s">
+      <c r="T14" s="77" t="s">
         <v>518</v>
       </c>
-      <c r="U14" s="81" t="s">
+      <c r="U14" s="77" t="s">
         <v>519</v>
       </c>
       <c r="V14">
@@ -12949,100 +12963,100 @@
       <c r="Y14">
         <v>0</v>
       </c>
-      <c r="Z14" s="81" t="s">
+      <c r="Z14" s="77" t="s">
         <v>520</v>
       </c>
-      <c r="AA14" s="81" t="s">
+      <c r="AA14" s="77" t="s">
         <v>521</v>
       </c>
-      <c r="AB14" s="81" t="s">
+      <c r="AB14" s="77" t="s">
         <v>522</v>
       </c>
       <c r="AC14">
         <v>465664</v>
       </c>
-      <c r="AD14" s="81">
+      <c r="AD14" s="77">
         <v>1064.7428319999999</v>
       </c>
-      <c r="AE14" s="81">
+      <c r="AE14" s="77">
         <v>4.8659618332827996</v>
       </c>
-      <c r="AF14" s="81">
+      <c r="AF14" s="77">
         <v>4291.7020000000002</v>
       </c>
-      <c r="AG14" s="81" t="s">
+      <c r="AG14" s="77" t="s">
         <v>523</v>
       </c>
-      <c r="AH14" s="81" t="s">
+      <c r="AH14" s="77" t="s">
         <v>524</v>
       </c>
-      <c r="AI14" s="81">
+      <c r="AI14" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>7.0667279285507716</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="77" t="s">
         <v>525</v>
       </c>
-      <c r="B15" s="81">
+      <c r="B15" s="77">
         <v>16435.995568837701</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="77" t="s">
         <v>526</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="77" t="s">
         <v>527</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="77" t="s">
         <v>528</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="77" t="s">
         <v>376</v>
       </c>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="77" t="s">
         <v>529</v>
       </c>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="I15" s="81">
+      <c r="I15" s="77">
         <v>12111.596621888801</v>
       </c>
-      <c r="J15" s="81">
+      <c r="J15" s="77">
         <v>11910.3020825028</v>
       </c>
-      <c r="K15" s="81" t="s">
+      <c r="K15" s="77" t="s">
         <v>530</v>
       </c>
-      <c r="L15" s="81" t="s">
+      <c r="L15" s="77" t="s">
         <v>531</v>
       </c>
-      <c r="M15" s="81" t="s">
+      <c r="M15" s="77" t="s">
         <v>532</v>
       </c>
-      <c r="N15" s="81" t="s">
+      <c r="N15" s="77" t="s">
         <v>533</v>
       </c>
-      <c r="O15" s="81" t="s">
+      <c r="O15" s="77" t="s">
         <v>534</v>
       </c>
-      <c r="P15" s="81" t="s">
+      <c r="P15" s="77" t="s">
         <v>535</v>
       </c>
-      <c r="Q15" s="81" t="s">
+      <c r="Q15" s="77" t="s">
         <v>536</v>
       </c>
-      <c r="R15" s="81" t="s">
+      <c r="R15" s="77" t="s">
         <v>537</v>
       </c>
-      <c r="S15" s="81" t="s">
+      <c r="S15" s="77" t="s">
         <v>538</v>
       </c>
-      <c r="T15" s="81" t="s">
+      <c r="T15" s="77" t="s">
         <v>539</v>
       </c>
-      <c r="U15" s="81" t="s">
+      <c r="U15" s="77" t="s">
         <v>540</v>
       </c>
       <c r="V15">
@@ -13057,100 +13071,100 @@
       <c r="Y15">
         <v>0</v>
       </c>
-      <c r="Z15" s="81" t="s">
+      <c r="Z15" s="77" t="s">
         <v>541</v>
       </c>
-      <c r="AA15" s="81" t="s">
+      <c r="AA15" s="77" t="s">
         <v>542</v>
       </c>
-      <c r="AB15" s="81" t="s">
+      <c r="AB15" s="77" t="s">
         <v>543</v>
       </c>
       <c r="AC15">
         <v>467992</v>
       </c>
-      <c r="AD15" s="81">
+      <c r="AD15" s="77">
         <v>1080.7450309999999</v>
       </c>
-      <c r="AE15" s="81">
+      <c r="AE15" s="77">
         <v>4.6482754536224702</v>
       </c>
-      <c r="AF15" s="81">
+      <c r="AF15" s="77">
         <v>4423.59</v>
       </c>
-      <c r="AG15" s="81" t="s">
+      <c r="AG15" s="77" t="s">
         <v>544</v>
       </c>
-      <c r="AH15" s="81" t="s">
+      <c r="AH15" s="77" t="s">
         <v>545</v>
       </c>
-      <c r="AI15" s="81">
+      <c r="AI15" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>6.728509358427659</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="77" t="s">
         <v>546</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B16" s="77">
         <v>17715.7879353873</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="77" t="s">
         <v>547</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="77" t="s">
         <v>548</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="77" t="s">
         <v>549</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="77" t="s">
         <v>550</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="77" t="s">
         <v>551</v>
       </c>
-      <c r="H16" s="81" t="s">
+      <c r="H16" s="77" t="s">
         <v>331</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="77">
         <v>12483.568621504301</v>
       </c>
-      <c r="J16" s="81">
+      <c r="J16" s="77">
         <v>12402.6444145856</v>
       </c>
-      <c r="K16" s="81" t="s">
+      <c r="K16" s="77" t="s">
         <v>552</v>
       </c>
-      <c r="L16" s="81" t="s">
+      <c r="L16" s="77" t="s">
         <v>553</v>
       </c>
-      <c r="M16" s="81" t="s">
+      <c r="M16" s="77" t="s">
         <v>554</v>
       </c>
-      <c r="N16" s="81" t="s">
+      <c r="N16" s="77" t="s">
         <v>555</v>
       </c>
-      <c r="O16" s="81" t="s">
+      <c r="O16" s="77" t="s">
         <v>556</v>
       </c>
-      <c r="P16" s="81" t="s">
+      <c r="P16" s="77" t="s">
         <v>557</v>
       </c>
-      <c r="Q16" s="81" t="s">
+      <c r="Q16" s="77" t="s">
         <v>558</v>
       </c>
-      <c r="R16" s="81" t="s">
+      <c r="R16" s="77" t="s">
         <v>559</v>
       </c>
-      <c r="S16" s="81" t="s">
+      <c r="S16" s="77" t="s">
         <v>560</v>
       </c>
-      <c r="T16" s="81" t="s">
+      <c r="T16" s="77" t="s">
         <v>561</v>
       </c>
-      <c r="U16" s="81" t="s">
+      <c r="U16" s="77" t="s">
         <v>562</v>
       </c>
       <c r="V16">
@@ -13165,100 +13179,100 @@
       <c r="Y16">
         <v>0</v>
       </c>
-      <c r="Z16" s="81" t="s">
+      <c r="Z16" s="77" t="s">
         <v>563</v>
       </c>
-      <c r="AA16" s="81" t="s">
+      <c r="AA16" s="77" t="s">
         <v>564</v>
       </c>
-      <c r="AB16" s="81" t="s">
+      <c r="AB16" s="77" t="s">
         <v>565</v>
       </c>
       <c r="AC16">
         <v>476380</v>
       </c>
-      <c r="AD16" s="81">
+      <c r="AD16" s="77">
         <v>1133.2038729999999</v>
       </c>
-      <c r="AE16" s="81">
+      <c r="AE16" s="77">
         <v>4.5570640655481096</v>
       </c>
-      <c r="AF16" s="81">
+      <c r="AF16" s="77">
         <v>4463.6629999999996</v>
       </c>
-      <c r="AG16" s="81" t="s">
+      <c r="AG16" s="77" t="s">
         <v>566</v>
       </c>
-      <c r="AH16" s="81" t="s">
+      <c r="AH16" s="77" t="s">
         <v>567</v>
       </c>
-      <c r="AI16" s="81">
+      <c r="AI16" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>6.2989902231272339</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="77" t="s">
         <v>568</v>
       </c>
-      <c r="B17" s="81">
+      <c r="B17" s="77">
         <v>18768.8897270778</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="77" t="s">
         <v>569</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="77" t="s">
         <v>570</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="77" t="s">
         <v>571</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="77" t="s">
         <v>572</v>
       </c>
-      <c r="G17" s="81" t="s">
+      <c r="G17" s="77" t="s">
         <v>573</v>
       </c>
-      <c r="H17" s="81" t="s">
+      <c r="H17" s="77" t="s">
         <v>574</v>
       </c>
-      <c r="I17" s="81">
+      <c r="I17" s="77">
         <v>12855.540621119901</v>
       </c>
-      <c r="J17" s="81">
+      <c r="J17" s="77">
         <v>12894.986746668301</v>
       </c>
-      <c r="K17" s="81" t="s">
+      <c r="K17" s="77" t="s">
         <v>575</v>
       </c>
-      <c r="L17" s="81" t="s">
+      <c r="L17" s="77" t="s">
         <v>576</v>
       </c>
-      <c r="M17" s="81" t="s">
+      <c r="M17" s="77" t="s">
         <v>577</v>
       </c>
-      <c r="N17" s="81" t="s">
+      <c r="N17" s="77" t="s">
         <v>578</v>
       </c>
-      <c r="O17" s="81" t="s">
+      <c r="O17" s="77" t="s">
         <v>579</v>
       </c>
-      <c r="P17" s="81" t="s">
+      <c r="P17" s="77" t="s">
         <v>580</v>
       </c>
-      <c r="Q17" s="81" t="s">
+      <c r="Q17" s="77" t="s">
         <v>581</v>
       </c>
-      <c r="R17" s="81" t="s">
+      <c r="R17" s="77" t="s">
         <v>582</v>
       </c>
-      <c r="S17" s="81" t="s">
+      <c r="S17" s="77" t="s">
         <v>560</v>
       </c>
-      <c r="T17" s="81" t="s">
+      <c r="T17" s="77" t="s">
         <v>583</v>
       </c>
-      <c r="U17" s="81" t="s">
+      <c r="U17" s="77" t="s">
         <v>584</v>
       </c>
       <c r="V17">
@@ -13273,100 +13287,100 @@
       <c r="Y17">
         <v>0</v>
       </c>
-      <c r="Z17" s="81" t="s">
+      <c r="Z17" s="77" t="s">
         <v>585</v>
       </c>
-      <c r="AA17" s="81" t="s">
+      <c r="AA17" s="77" t="s">
         <v>586</v>
       </c>
-      <c r="AB17" s="81" t="s">
+      <c r="AB17" s="77" t="s">
         <v>587</v>
       </c>
       <c r="AC17">
         <v>486578</v>
       </c>
-      <c r="AD17" s="81">
+      <c r="AD17" s="77">
         <v>1122.8025620000001</v>
       </c>
-      <c r="AE17" s="81">
+      <c r="AE17" s="77">
         <v>4.19544859398576</v>
       </c>
-      <c r="AF17" s="81">
+      <c r="AF17" s="77">
         <v>4977.8980000000001</v>
       </c>
-      <c r="AG17" s="81" t="s">
+      <c r="AG17" s="77" t="s">
         <v>588</v>
       </c>
-      <c r="AH17" s="81" t="s">
+      <c r="AH17" s="77" t="s">
         <v>589</v>
       </c>
-      <c r="AI17" s="81">
+      <c r="AI17" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>6.6305174045782884</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="77" t="s">
         <v>590</v>
       </c>
-      <c r="B18" s="81">
+      <c r="B18" s="77">
         <v>16370.002896506399</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="77" t="s">
         <v>591</v>
       </c>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="77" t="s">
         <v>592</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="77" t="s">
         <v>593</v>
       </c>
-      <c r="F18" s="81" t="s">
+      <c r="F18" s="77" t="s">
         <v>594</v>
       </c>
-      <c r="G18" s="81" t="s">
+      <c r="G18" s="77" t="s">
         <v>595</v>
       </c>
-      <c r="H18" s="81" t="s">
+      <c r="H18" s="77" t="s">
         <v>596</v>
       </c>
-      <c r="I18" s="81">
+      <c r="I18" s="77">
         <v>12896.6403370588</v>
       </c>
-      <c r="J18" s="81">
+      <c r="J18" s="77">
         <v>13006.9704700695</v>
       </c>
-      <c r="K18" s="81" t="s">
+      <c r="K18" s="77" t="s">
         <v>597</v>
       </c>
-      <c r="L18" s="81" t="s">
+      <c r="L18" s="77" t="s">
         <v>598</v>
       </c>
-      <c r="M18" s="81" t="s">
+      <c r="M18" s="77" t="s">
         <v>599</v>
       </c>
-      <c r="N18" s="81" t="s">
+      <c r="N18" s="77" t="s">
         <v>600</v>
       </c>
-      <c r="O18" s="81" t="s">
+      <c r="O18" s="77" t="s">
         <v>601</v>
       </c>
-      <c r="P18" s="81" t="s">
+      <c r="P18" s="77" t="s">
         <v>602</v>
       </c>
-      <c r="Q18" s="81" t="s">
+      <c r="Q18" s="77" t="s">
         <v>603</v>
       </c>
-      <c r="R18" s="81" t="s">
+      <c r="R18" s="77" t="s">
         <v>604</v>
       </c>
-      <c r="S18" s="81" t="s">
+      <c r="S18" s="77" t="s">
         <v>605</v>
       </c>
-      <c r="T18" s="81" t="s">
+      <c r="T18" s="77" t="s">
         <v>606</v>
       </c>
-      <c r="U18" s="81" t="s">
+      <c r="U18" s="77" t="s">
         <v>607</v>
       </c>
       <c r="V18">
@@ -13381,100 +13395,100 @@
       <c r="Y18">
         <v>0</v>
       </c>
-      <c r="Z18" s="81" t="s">
+      <c r="Z18" s="77" t="s">
         <v>608</v>
       </c>
-      <c r="AA18" s="81" t="s">
+      <c r="AA18" s="77" t="s">
         <v>609</v>
       </c>
-      <c r="AB18" s="81" t="s">
+      <c r="AB18" s="77" t="s">
         <v>610</v>
       </c>
       <c r="AC18">
         <v>477267</v>
       </c>
-      <c r="AD18" s="81">
+      <c r="AD18" s="77">
         <v>1170.3631399999999</v>
       </c>
-      <c r="AE18" s="81">
+      <c r="AE18" s="77">
         <v>4.3360714163009302</v>
       </c>
-      <c r="AF18" s="81">
+      <c r="AF18" s="77">
         <v>4790.192</v>
       </c>
-      <c r="AG18" s="81" t="s">
+      <c r="AG18" s="77" t="s">
         <v>611</v>
       </c>
-      <c r="AH18" s="81" t="s">
+      <c r="AH18" s="77" t="s">
         <v>612</v>
       </c>
-      <c r="AI18" s="81">
+      <c r="AI18" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>7.3155026762736526</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="77" t="s">
         <v>613</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="77">
         <v>17507.881781280899</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="77" t="s">
         <v>614</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="77" t="s">
         <v>615</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="F19" s="81" t="s">
+      <c r="F19" s="77" t="s">
         <v>616</v>
       </c>
-      <c r="G19" s="81" t="s">
+      <c r="G19" s="77" t="s">
         <v>617</v>
       </c>
-      <c r="H19" s="81" t="s">
+      <c r="H19" s="77" t="s">
         <v>618</v>
       </c>
-      <c r="I19" s="81">
+      <c r="I19" s="77">
         <v>12937.7400529977</v>
       </c>
-      <c r="J19" s="81">
+      <c r="J19" s="77">
         <v>13118.9541934708</v>
       </c>
-      <c r="K19" s="81" t="s">
+      <c r="K19" s="77" t="s">
         <v>619</v>
       </c>
-      <c r="L19" s="81" t="s">
+      <c r="L19" s="77" t="s">
         <v>620</v>
       </c>
-      <c r="M19" s="81" t="s">
+      <c r="M19" s="77" t="s">
         <v>621</v>
       </c>
-      <c r="N19" s="81" t="s">
+      <c r="N19" s="77" t="s">
         <v>622</v>
       </c>
-      <c r="O19" s="81" t="s">
+      <c r="O19" s="77" t="s">
         <v>623</v>
       </c>
-      <c r="P19" s="81" t="s">
+      <c r="P19" s="77" t="s">
         <v>624</v>
       </c>
-      <c r="Q19" s="81" t="s">
+      <c r="Q19" s="77" t="s">
         <v>625</v>
       </c>
-      <c r="R19" s="81" t="s">
+      <c r="R19" s="77" t="s">
         <v>626</v>
       </c>
-      <c r="S19" s="81" t="s">
+      <c r="S19" s="77" t="s">
         <v>376</v>
       </c>
-      <c r="T19" s="81" t="s">
+      <c r="T19" s="77" t="s">
         <v>627</v>
       </c>
-      <c r="U19" s="81" t="s">
+      <c r="U19" s="77" t="s">
         <v>628</v>
       </c>
       <c r="V19">
@@ -13489,100 +13503,100 @@
       <c r="Y19">
         <v>0</v>
       </c>
-      <c r="Z19" s="81" t="s">
+      <c r="Z19" s="77" t="s">
         <v>629</v>
       </c>
-      <c r="AA19" s="81" t="s">
+      <c r="AA19" s="77" t="s">
         <v>630</v>
       </c>
-      <c r="AB19" s="81" t="s">
+      <c r="AB19" s="77" t="s">
         <v>631</v>
       </c>
       <c r="AC19">
         <v>475224</v>
       </c>
-      <c r="AD19" s="81">
+      <c r="AD19" s="77">
         <v>1191.4223469999999</v>
       </c>
-      <c r="AE19" s="81">
+      <c r="AE19" s="77">
         <v>4.2120544027727904</v>
       </c>
-      <c r="AF19" s="81">
+      <c r="AF19" s="77">
         <v>4951.2610000000004</v>
       </c>
-      <c r="AG19" s="81" t="s">
+      <c r="AG19" s="77" t="s">
         <v>632</v>
       </c>
-      <c r="AH19" s="81" t="s">
+      <c r="AH19" s="77" t="s">
         <v>633</v>
       </c>
-      <c r="AI19" s="81">
+      <c r="AI19" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>7.0700457397619001</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="77" t="s">
         <v>634</v>
       </c>
-      <c r="B20" s="81">
+      <c r="B20" s="77">
         <v>19003.469310733599</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="77" t="s">
         <v>635</v>
       </c>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="77" t="s">
         <v>636</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="77" t="s">
         <v>637</v>
       </c>
-      <c r="F20" s="81" t="s">
+      <c r="F20" s="77" t="s">
         <v>638</v>
       </c>
-      <c r="G20" s="81" t="s">
+      <c r="G20" s="77" t="s">
         <v>639</v>
       </c>
-      <c r="H20" s="81" t="s">
+      <c r="H20" s="77" t="s">
         <v>640</v>
       </c>
-      <c r="I20" s="81">
+      <c r="I20" s="77">
         <v>12978.839768936599</v>
       </c>
-      <c r="J20" s="81">
+      <c r="J20" s="77">
         <v>13230.937916872001</v>
       </c>
-      <c r="K20" s="81" t="s">
+      <c r="K20" s="77" t="s">
         <v>641</v>
       </c>
-      <c r="L20" s="81" t="s">
+      <c r="L20" s="77" t="s">
         <v>642</v>
       </c>
-      <c r="M20" s="81" t="s">
+      <c r="M20" s="77" t="s">
         <v>643</v>
       </c>
-      <c r="N20" s="81" t="s">
+      <c r="N20" s="77" t="s">
         <v>644</v>
       </c>
-      <c r="O20" s="81" t="s">
+      <c r="O20" s="77" t="s">
         <v>645</v>
       </c>
-      <c r="P20" s="81" t="s">
+      <c r="P20" s="77" t="s">
         <v>646</v>
       </c>
-      <c r="Q20" s="81" t="s">
+      <c r="Q20" s="77" t="s">
         <v>647</v>
       </c>
-      <c r="R20" s="81" t="s">
+      <c r="R20" s="77" t="s">
         <v>648</v>
       </c>
-      <c r="S20" s="81" t="s">
+      <c r="S20" s="77" t="s">
         <v>649</v>
       </c>
-      <c r="T20" s="81" t="s">
+      <c r="T20" s="77" t="s">
         <v>650</v>
       </c>
-      <c r="U20" s="81" t="s">
+      <c r="U20" s="77" t="s">
         <v>651</v>
       </c>
       <c r="V20">
@@ -13597,100 +13611,100 @@
       <c r="Y20">
         <v>0</v>
       </c>
-      <c r="Z20" s="81" t="s">
+      <c r="Z20" s="77" t="s">
         <v>652</v>
       </c>
-      <c r="AA20" s="81" t="s">
+      <c r="AA20" s="77" t="s">
         <v>653</v>
       </c>
-      <c r="AB20" s="81" t="s">
+      <c r="AB20" s="77" t="s">
         <v>654</v>
       </c>
       <c r="AC20">
         <v>479451</v>
       </c>
-      <c r="AD20" s="81">
+      <c r="AD20" s="77">
         <v>1257.386334</v>
       </c>
-      <c r="AE20" s="81">
+      <c r="AE20" s="77">
         <v>4.1881882144251597</v>
       </c>
-      <c r="AF20" s="81">
+      <c r="AF20" s="77">
         <v>5109.1289999999999</v>
       </c>
-      <c r="AG20" s="81" t="s">
+      <c r="AG20" s="77" t="s">
         <v>655</v>
       </c>
-      <c r="AH20" s="81" t="s">
+      <c r="AH20" s="77" t="s">
         <v>656</v>
       </c>
-      <c r="AI20" s="81">
+      <c r="AI20" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>6.7213108781066708</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="77" t="s">
         <v>657</v>
       </c>
-      <c r="B21" s="81">
+      <c r="B21" s="77">
         <v>20104.347141818402</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="77" t="s">
         <v>658</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="77" t="s">
         <v>659</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="77" t="s">
         <v>660</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="77" t="s">
         <v>661</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="77" t="s">
         <v>662</v>
       </c>
-      <c r="H21" s="81" t="s">
+      <c r="H21" s="77" t="s">
         <v>663</v>
       </c>
-      <c r="I21" s="81">
+      <c r="I21" s="77">
         <v>13019.9394848755</v>
       </c>
-      <c r="J21" s="81">
+      <c r="J21" s="77">
         <v>13342.9216402732</v>
       </c>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="77" t="s">
         <v>664</v>
       </c>
-      <c r="L21" s="81" t="s">
+      <c r="L21" s="77" t="s">
         <v>665</v>
       </c>
-      <c r="M21" s="81" t="s">
+      <c r="M21" s="77" t="s">
         <v>666</v>
       </c>
-      <c r="N21" s="81" t="s">
+      <c r="N21" s="77" t="s">
         <v>667</v>
       </c>
-      <c r="O21" s="81" t="s">
+      <c r="O21" s="77" t="s">
         <v>668</v>
       </c>
-      <c r="P21" s="81" t="s">
+      <c r="P21" s="77" t="s">
         <v>669</v>
       </c>
-      <c r="Q21" s="81" t="s">
+      <c r="Q21" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="R21" s="81" t="s">
+      <c r="R21" s="77" t="s">
         <v>671</v>
       </c>
-      <c r="S21" s="81" t="s">
+      <c r="S21" s="77" t="s">
         <v>506</v>
       </c>
-      <c r="T21" s="81" t="s">
+      <c r="T21" s="77" t="s">
         <v>672</v>
       </c>
-      <c r="U21" s="81" t="s">
+      <c r="U21" s="77" t="s">
         <v>673</v>
       </c>
       <c r="V21">
@@ -13705,100 +13719,100 @@
       <c r="Y21">
         <v>0</v>
       </c>
-      <c r="Z21" s="81" t="s">
+      <c r="Z21" s="77" t="s">
         <v>674</v>
       </c>
-      <c r="AA21" s="81" t="s">
+      <c r="AA21" s="77" t="s">
         <v>675</v>
       </c>
-      <c r="AB21" s="81" t="s">
+      <c r="AB21" s="77" t="s">
         <v>676</v>
       </c>
       <c r="AC21">
         <v>469605</v>
       </c>
-      <c r="AD21" s="81">
+      <c r="AD21" s="77">
         <v>1257.907899</v>
       </c>
-      <c r="AE21" s="81">
+      <c r="AE21" s="77">
         <v>4.01689082783306</v>
       </c>
-      <c r="AF21" s="81">
+      <c r="AF21" s="77">
         <v>5722.2389999999996</v>
       </c>
-      <c r="AG21" s="81" t="s">
+      <c r="AG21" s="77" t="s">
         <v>677</v>
       </c>
-      <c r="AH21" s="81" t="s">
+      <c r="AH21" s="77" t="s">
         <v>678</v>
       </c>
-      <c r="AI21" s="81">
+      <c r="AI21" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>7.115673739160318</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="77" t="s">
         <v>679</v>
       </c>
-      <c r="B22" s="81">
+      <c r="B22" s="77">
         <v>17311.393635386499</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="77" t="s">
         <v>680</v>
       </c>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="77" t="s">
         <v>681</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="77" t="s">
         <v>682</v>
       </c>
-      <c r="F22" s="81" t="s">
+      <c r="F22" s="77" t="s">
         <v>683</v>
       </c>
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="77" t="s">
         <v>684</v>
       </c>
-      <c r="H22" s="81" t="s">
+      <c r="H22" s="77" t="s">
         <v>685</v>
       </c>
-      <c r="I22" s="81">
+      <c r="I22" s="77">
         <v>13389.1747375715</v>
       </c>
-      <c r="J22" s="81">
+      <c r="J22" s="77">
         <v>13715.0852079458</v>
       </c>
-      <c r="K22" s="81" t="s">
+      <c r="K22" s="77" t="s">
         <v>686</v>
       </c>
-      <c r="L22" s="81" t="s">
+      <c r="L22" s="77" t="s">
         <v>687</v>
       </c>
-      <c r="M22" s="81" t="s">
+      <c r="M22" s="77" t="s">
         <v>688</v>
       </c>
-      <c r="N22" s="81" t="s">
+      <c r="N22" s="77" t="s">
         <v>689</v>
       </c>
-      <c r="O22" s="81" t="s">
+      <c r="O22" s="77" t="s">
         <v>690</v>
       </c>
-      <c r="P22" s="81" t="s">
+      <c r="P22" s="77" t="s">
         <v>691</v>
       </c>
-      <c r="Q22" s="81" t="s">
+      <c r="Q22" s="77" t="s">
         <v>692</v>
       </c>
-      <c r="R22" s="81" t="s">
+      <c r="R22" s="77" t="s">
         <v>693</v>
       </c>
-      <c r="S22" s="81" t="s">
+      <c r="S22" s="77" t="s">
         <v>694</v>
       </c>
-      <c r="T22" s="81" t="s">
+      <c r="T22" s="77" t="s">
         <v>695</v>
       </c>
-      <c r="U22" s="81" t="s">
+      <c r="U22" s="77" t="s">
         <v>696</v>
       </c>
       <c r="V22">
@@ -13813,100 +13827,100 @@
       <c r="Y22">
         <v>0</v>
       </c>
-      <c r="Z22" s="81" t="s">
+      <c r="Z22" s="77" t="s">
         <v>697</v>
       </c>
-      <c r="AA22" s="81" t="s">
+      <c r="AA22" s="77" t="s">
         <v>698</v>
       </c>
-      <c r="AB22" s="81" t="s">
+      <c r="AB22" s="77" t="s">
         <v>699</v>
       </c>
       <c r="AC22">
         <v>442776</v>
       </c>
-      <c r="AD22" s="81">
+      <c r="AD22" s="77">
         <v>1370.5817480000001</v>
       </c>
-      <c r="AE22" s="81">
+      <c r="AE22" s="77">
         <v>4.2800978561380303</v>
       </c>
-      <c r="AF22" s="81">
+      <c r="AF22" s="77">
         <v>5707.2389999999996</v>
       </c>
-      <c r="AG22" s="81" t="s">
+      <c r="AG22" s="77" t="s">
         <v>700</v>
       </c>
-      <c r="AH22" s="81" t="s">
+      <c r="AH22" s="77" t="s">
         <v>701</v>
       </c>
-      <c r="AI22" s="81">
+      <c r="AI22" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>8.2420270721788391</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="77" t="s">
         <v>702</v>
       </c>
-      <c r="B23" s="81">
+      <c r="B23" s="77">
         <v>19044.1893878062</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="77" t="s">
         <v>703</v>
       </c>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="77" t="s">
         <v>704</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="77" t="s">
         <v>705</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="77" t="s">
         <v>706</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="77" t="s">
         <v>707</v>
       </c>
-      <c r="H23" s="81" t="s">
+      <c r="H23" s="77" t="s">
         <v>708</v>
       </c>
-      <c r="I23" s="81">
+      <c r="I23" s="77">
         <v>13758.409990267401</v>
       </c>
-      <c r="J23" s="81">
+      <c r="J23" s="77">
         <v>14087.2487756183</v>
       </c>
-      <c r="K23" s="81" t="s">
+      <c r="K23" s="77" t="s">
         <v>709</v>
       </c>
-      <c r="L23" s="81" t="s">
+      <c r="L23" s="77" t="s">
         <v>710</v>
       </c>
-      <c r="M23" s="81" t="s">
+      <c r="M23" s="77" t="s">
         <v>711</v>
       </c>
-      <c r="N23" s="81" t="s">
+      <c r="N23" s="77" t="s">
         <v>712</v>
       </c>
-      <c r="O23" s="81" t="s">
+      <c r="O23" s="77" t="s">
         <v>713</v>
       </c>
-      <c r="P23" s="81" t="s">
+      <c r="P23" s="77" t="s">
         <v>714</v>
       </c>
-      <c r="Q23" s="81" t="s">
+      <c r="Q23" s="77" t="s">
         <v>715</v>
       </c>
-      <c r="R23" s="81" t="s">
+      <c r="R23" s="77" t="s">
         <v>716</v>
       </c>
-      <c r="S23" s="81" t="s">
+      <c r="S23" s="77" t="s">
         <v>717</v>
       </c>
-      <c r="T23" s="81" t="s">
+      <c r="T23" s="77" t="s">
         <v>718</v>
       </c>
-      <c r="U23" s="81" t="s">
+      <c r="U23" s="77" t="s">
         <v>719</v>
       </c>
       <c r="V23">
@@ -13921,100 +13935,100 @@
       <c r="Y23">
         <v>0</v>
       </c>
-      <c r="Z23" s="81" t="s">
+      <c r="Z23" s="77" t="s">
         <v>720</v>
       </c>
-      <c r="AA23" s="81" t="s">
+      <c r="AA23" s="77" t="s">
         <v>721</v>
       </c>
-      <c r="AB23" s="81" t="s">
+      <c r="AB23" s="77" t="s">
         <v>722</v>
       </c>
       <c r="AC23">
         <v>431958</v>
       </c>
-      <c r="AD23" s="81">
+      <c r="AD23" s="77">
         <v>1513.8470420000001</v>
       </c>
-      <c r="AE23" s="81">
+      <c r="AE23" s="77">
         <v>4.4310852772620803</v>
       </c>
-      <c r="AF23" s="81">
+      <c r="AF23" s="77">
         <v>5757.2039999999997</v>
       </c>
-      <c r="AG23" s="81" t="s">
+      <c r="AG23" s="77" t="s">
         <v>723</v>
       </c>
-      <c r="AH23" s="81" t="s">
+      <c r="AH23" s="77" t="s">
         <v>724</v>
       </c>
-      <c r="AI23" s="81">
+      <c r="AI23" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>7.557691066239709</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="77" t="s">
         <v>725</v>
       </c>
-      <c r="B24" s="81">
+      <c r="B24" s="77">
         <v>20544.004177204501</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="77" t="s">
         <v>504</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="77" t="s">
         <v>726</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="77" t="s">
         <v>637</v>
       </c>
-      <c r="F24" s="81" t="s">
+      <c r="F24" s="77" t="s">
         <v>727</v>
       </c>
-      <c r="G24" s="81" t="s">
+      <c r="G24" s="77" t="s">
         <v>728</v>
       </c>
-      <c r="H24" s="81" t="s">
+      <c r="H24" s="77" t="s">
         <v>729</v>
       </c>
-      <c r="I24" s="81">
+      <c r="I24" s="77">
         <v>14127.645242963399</v>
       </c>
-      <c r="J24" s="81">
+      <c r="J24" s="77">
         <v>14459.4123432908</v>
       </c>
-      <c r="K24" s="81" t="s">
+      <c r="K24" s="77" t="s">
         <v>730</v>
       </c>
-      <c r="L24" s="81" t="s">
+      <c r="L24" s="77" t="s">
         <v>731</v>
       </c>
-      <c r="M24" s="81" t="s">
+      <c r="M24" s="77" t="s">
         <v>732</v>
       </c>
-      <c r="N24" s="81" t="s">
+      <c r="N24" s="77" t="s">
         <v>733</v>
       </c>
-      <c r="O24" s="81" t="s">
+      <c r="O24" s="77" t="s">
         <v>734</v>
       </c>
-      <c r="P24" s="81" t="s">
+      <c r="P24" s="77" t="s">
         <v>735</v>
       </c>
-      <c r="Q24" s="81" t="s">
+      <c r="Q24" s="77" t="s">
         <v>736</v>
       </c>
-      <c r="R24" s="81" t="s">
+      <c r="R24" s="77" t="s">
         <v>737</v>
       </c>
-      <c r="S24" s="81" t="s">
+      <c r="S24" s="77" t="s">
         <v>738</v>
       </c>
-      <c r="T24" s="81" t="s">
+      <c r="T24" s="77" t="s">
         <v>739</v>
       </c>
-      <c r="U24" s="81" t="s">
+      <c r="U24" s="77" t="s">
         <v>740</v>
       </c>
       <c r="V24">
@@ -14029,100 +14043,100 @@
       <c r="Y24">
         <v>1</v>
       </c>
-      <c r="Z24" s="81" t="s">
+      <c r="Z24" s="77" t="s">
         <v>741</v>
       </c>
-      <c r="AA24" s="81" t="s">
+      <c r="AA24" s="77" t="s">
         <v>742</v>
       </c>
-      <c r="AB24" s="81" t="s">
+      <c r="AB24" s="77" t="s">
         <v>743</v>
       </c>
       <c r="AC24">
         <v>409224</v>
       </c>
-      <c r="AD24" s="81">
+      <c r="AD24" s="77">
         <v>1601.154622</v>
       </c>
-      <c r="AE24" s="81">
+      <c r="AE24" s="77">
         <v>4.5488034709401397</v>
       </c>
-      <c r="AF24" s="81">
+      <c r="AF24" s="77">
         <v>5739.1319999999996</v>
       </c>
-      <c r="AG24" s="81" t="s">
+      <c r="AG24" s="77" t="s">
         <v>744</v>
       </c>
-      <c r="AH24" s="81" t="s">
+      <c r="AH24" s="77" t="s">
         <v>745</v>
       </c>
-      <c r="AI24" s="81">
+      <c r="AI24" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>6.9839500986474015</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="77" t="s">
         <v>746</v>
       </c>
-      <c r="B25" s="81">
+      <c r="B25" s="77">
         <v>22130.452874336901</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="77" t="s">
         <v>747</v>
       </c>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="77" t="s">
         <v>748</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="77" t="s">
         <v>660</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="77" t="s">
         <v>749</v>
       </c>
-      <c r="G25" s="81" t="s">
+      <c r="G25" s="77" t="s">
         <v>750</v>
       </c>
-      <c r="H25" s="81" t="s">
+      <c r="H25" s="77" t="s">
         <v>751</v>
       </c>
-      <c r="I25" s="81">
+      <c r="I25" s="77">
         <v>14496.880495659299</v>
       </c>
-      <c r="J25" s="81">
+      <c r="J25" s="77">
         <v>14831.5759109634</v>
       </c>
-      <c r="K25" s="81" t="s">
+      <c r="K25" s="77" t="s">
         <v>752</v>
       </c>
-      <c r="L25" s="81" t="s">
+      <c r="L25" s="77" t="s">
         <v>753</v>
       </c>
-      <c r="M25" s="81" t="s">
+      <c r="M25" s="77" t="s">
         <v>754</v>
       </c>
-      <c r="N25" s="81" t="s">
+      <c r="N25" s="77" t="s">
         <v>755</v>
       </c>
-      <c r="O25" s="81" t="s">
+      <c r="O25" s="77" t="s">
         <v>756</v>
       </c>
-      <c r="P25" s="81" t="s">
+      <c r="P25" s="77" t="s">
         <v>757</v>
       </c>
-      <c r="Q25" s="81" t="s">
+      <c r="Q25" s="77" t="s">
         <v>758</v>
       </c>
-      <c r="R25" s="81" t="s">
+      <c r="R25" s="77" t="s">
         <v>759</v>
       </c>
-      <c r="S25" s="81" t="s">
+      <c r="S25" s="77" t="s">
         <v>485</v>
       </c>
-      <c r="T25" s="81" t="s">
+      <c r="T25" s="77" t="s">
         <v>760</v>
       </c>
-      <c r="U25" s="81" t="s">
+      <c r="U25" s="77" t="s">
         <v>761</v>
       </c>
       <c r="V25">
@@ -14137,100 +14151,100 @@
       <c r="Y25">
         <v>1</v>
       </c>
-      <c r="Z25" s="81" t="s">
+      <c r="Z25" s="77" t="s">
         <v>762</v>
       </c>
-      <c r="AA25" s="81" t="s">
+      <c r="AA25" s="77" t="s">
         <v>763</v>
       </c>
-      <c r="AB25" s="81" t="s">
+      <c r="AB25" s="77" t="s">
         <v>764</v>
       </c>
       <c r="AC25">
         <v>339371</v>
       </c>
-      <c r="AD25" s="81">
+      <c r="AD25" s="77">
         <v>1725.9342180000001</v>
       </c>
-      <c r="AE25" s="81">
+      <c r="AE25" s="77">
         <v>4.7022217129556498</v>
       </c>
-      <c r="AF25" s="81">
+      <c r="AF25" s="77">
         <v>7241.1689999999999</v>
       </c>
-      <c r="AG25" s="81" t="s">
+      <c r="AG25" s="77" t="s">
         <v>765</v>
       </c>
-      <c r="AH25" s="81" t="s">
+      <c r="AH25" s="77" t="s">
         <v>766</v>
       </c>
-      <c r="AI25" s="81">
+      <c r="AI25" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>8.1800958176471212</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="77" t="s">
         <v>767</v>
       </c>
-      <c r="B26" s="81">
+      <c r="B26" s="77">
         <v>18467.912804445699</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="77" t="s">
         <v>768</v>
       </c>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="77" t="s">
         <v>769</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="77" t="s">
         <v>660</v>
       </c>
-      <c r="F26" s="81" t="s">
+      <c r="F26" s="77" t="s">
         <v>770</v>
       </c>
-      <c r="G26" s="81" t="s">
+      <c r="G26" s="77" t="s">
         <v>771</v>
       </c>
-      <c r="H26" s="81" t="s">
+      <c r="H26" s="77" t="s">
         <v>751</v>
       </c>
-      <c r="I26" s="81">
+      <c r="I26" s="77">
         <v>14287.4711065871</v>
       </c>
-      <c r="J26" s="81">
+      <c r="J26" s="77">
         <v>15028.7450756909</v>
       </c>
-      <c r="K26" s="81" t="s">
+      <c r="K26" s="77" t="s">
         <v>772</v>
       </c>
-      <c r="L26" s="81" t="s">
+      <c r="L26" s="77" t="s">
         <v>773</v>
       </c>
-      <c r="M26" s="81" t="s">
+      <c r="M26" s="77" t="s">
         <v>774</v>
       </c>
-      <c r="N26" s="81" t="s">
+      <c r="N26" s="77" t="s">
         <v>775</v>
       </c>
-      <c r="O26" s="81" t="s">
+      <c r="O26" s="77" t="s">
         <v>776</v>
       </c>
-      <c r="P26" s="81" t="s">
+      <c r="P26" s="77" t="s">
         <v>777</v>
       </c>
-      <c r="Q26" s="81" t="s">
+      <c r="Q26" s="77" t="s">
         <v>778</v>
       </c>
-      <c r="R26" s="81" t="s">
+      <c r="R26" s="77" t="s">
         <v>779</v>
       </c>
-      <c r="S26" s="81" t="s">
+      <c r="S26" s="77" t="s">
         <v>780</v>
       </c>
-      <c r="T26" s="81" t="s">
+      <c r="T26" s="77" t="s">
         <v>781</v>
       </c>
-      <c r="U26" s="81" t="s">
+      <c r="U26" s="77" t="s">
         <v>782</v>
       </c>
       <c r="V26">
@@ -14245,100 +14259,100 @@
       <c r="Y26">
         <v>1</v>
       </c>
-      <c r="Z26" s="81" t="s">
+      <c r="Z26" s="77" t="s">
         <v>783</v>
       </c>
-      <c r="AA26" s="81" t="s">
+      <c r="AA26" s="77" t="s">
         <v>784</v>
       </c>
-      <c r="AB26" s="81" t="s">
+      <c r="AB26" s="77" t="s">
         <v>785</v>
       </c>
       <c r="AC26">
         <v>309093</v>
       </c>
-      <c r="AD26" s="81">
+      <c r="AD26" s="77">
         <v>2022.885878</v>
       </c>
-      <c r="AE26" s="81">
+      <c r="AE26" s="77">
         <v>5.7531607918392602</v>
       </c>
-      <c r="AF26" s="81">
+      <c r="AF26" s="77">
         <v>6986.4769999999999</v>
       </c>
-      <c r="AG26" s="81" t="s">
+      <c r="AG26" s="77" t="s">
         <v>786</v>
       </c>
-      <c r="AH26" s="81" t="s">
+      <c r="AH26" s="77" t="s">
         <v>787</v>
       </c>
-      <c r="AI26" s="81">
+      <c r="AI26" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>9.4575887838258801</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="77" t="s">
         <v>788</v>
       </c>
-      <c r="B27" s="81">
+      <c r="B27" s="77">
         <v>19751.014987984399</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="77" t="s">
         <v>789</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="77" t="s">
         <v>790</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="77" t="s">
         <v>791</v>
       </c>
-      <c r="F27" s="81" t="s">
+      <c r="F27" s="77" t="s">
         <v>792</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="77" t="s">
         <v>793</v>
       </c>
-      <c r="H27" s="81" t="s">
+      <c r="H27" s="77" t="s">
         <v>751</v>
       </c>
-      <c r="I27" s="81">
+      <c r="I27" s="77">
         <v>14078.0617175149</v>
       </c>
-      <c r="J27" s="81">
+      <c r="J27" s="77">
         <v>15225.9142404184</v>
       </c>
-      <c r="K27" s="81" t="s">
+      <c r="K27" s="77" t="s">
         <v>794</v>
       </c>
-      <c r="L27" s="81" t="s">
+      <c r="L27" s="77" t="s">
         <v>795</v>
       </c>
-      <c r="M27" s="81" t="s">
+      <c r="M27" s="77" t="s">
         <v>796</v>
       </c>
-      <c r="N27" s="81" t="s">
+      <c r="N27" s="77" t="s">
         <v>797</v>
       </c>
-      <c r="O27" s="81" t="s">
+      <c r="O27" s="77" t="s">
         <v>798</v>
       </c>
-      <c r="P27" s="81" t="s">
+      <c r="P27" s="77" t="s">
         <v>799</v>
       </c>
-      <c r="Q27" s="81" t="s">
+      <c r="Q27" s="77" t="s">
         <v>800</v>
       </c>
-      <c r="R27" s="81" t="s">
+      <c r="R27" s="77" t="s">
         <v>801</v>
       </c>
-      <c r="S27" s="81" t="s">
+      <c r="S27" s="77" t="s">
         <v>802</v>
       </c>
-      <c r="T27" s="81" t="s">
+      <c r="T27" s="77" t="s">
         <v>803</v>
       </c>
-      <c r="U27" s="81" t="s">
+      <c r="U27" s="77" t="s">
         <v>804</v>
       </c>
       <c r="V27">
@@ -14353,100 +14367,100 @@
       <c r="Y27">
         <v>1</v>
       </c>
-      <c r="Z27" s="81" t="s">
+      <c r="Z27" s="77" t="s">
         <v>805</v>
       </c>
-      <c r="AA27" s="81" t="s">
+      <c r="AA27" s="77" t="s">
         <v>806</v>
       </c>
-      <c r="AB27" s="81" t="s">
+      <c r="AB27" s="77" t="s">
         <v>807</v>
       </c>
       <c r="AC27">
         <v>313342</v>
       </c>
-      <c r="AD27" s="81">
+      <c r="AD27" s="77">
         <v>2273.8682800000001</v>
       </c>
-      <c r="AE27" s="81">
+      <c r="AE27" s="77">
         <v>6.41142682587334</v>
       </c>
-      <c r="AF27" s="81">
+      <c r="AF27" s="77">
         <v>7041.2889999999998</v>
       </c>
-      <c r="AG27" s="81" t="s">
+      <c r="AG27" s="77" t="s">
         <v>808</v>
       </c>
-      <c r="AH27" s="81" t="s">
+      <c r="AH27" s="77" t="s">
         <v>809</v>
       </c>
-      <c r="AI27" s="81">
+      <c r="AI27" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>8.9125660178522388</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="77" t="s">
         <v>810</v>
       </c>
-      <c r="B28" s="81">
+      <c r="B28" s="77">
         <v>21788.589405104602</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="77" t="s">
         <v>504</v>
       </c>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="77" t="s">
         <v>811</v>
       </c>
-      <c r="E28" s="81" t="s">
+      <c r="E28" s="77" t="s">
         <v>812</v>
       </c>
-      <c r="F28" s="81" t="s">
+      <c r="F28" s="77" t="s">
         <v>813</v>
       </c>
-      <c r="G28" s="81" t="s">
+      <c r="G28" s="77" t="s">
         <v>814</v>
       </c>
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="77" t="s">
         <v>751</v>
       </c>
-      <c r="I28" s="81">
+      <c r="I28" s="77">
         <v>13868.6523284428</v>
       </c>
-      <c r="J28" s="81">
+      <c r="J28" s="77">
         <v>15423.083405145901</v>
       </c>
-      <c r="K28" s="81" t="s">
+      <c r="K28" s="77" t="s">
         <v>815</v>
       </c>
-      <c r="L28" s="81" t="s">
+      <c r="L28" s="77" t="s">
         <v>816</v>
       </c>
-      <c r="M28" s="81" t="s">
+      <c r="M28" s="77" t="s">
         <v>817</v>
       </c>
-      <c r="N28" s="81" t="s">
+      <c r="N28" s="77" t="s">
         <v>818</v>
       </c>
-      <c r="O28" s="81" t="s">
+      <c r="O28" s="77" t="s">
         <v>819</v>
       </c>
-      <c r="P28" s="81" t="s">
+      <c r="P28" s="77" t="s">
         <v>820</v>
       </c>
-      <c r="Q28" s="81" t="s">
+      <c r="Q28" s="77" t="s">
         <v>821</v>
       </c>
-      <c r="R28" s="81" t="s">
+      <c r="R28" s="77" t="s">
         <v>822</v>
       </c>
-      <c r="S28" s="81" t="s">
+      <c r="S28" s="77" t="s">
         <v>649</v>
       </c>
-      <c r="T28" s="81" t="s">
+      <c r="T28" s="77" t="s">
         <v>823</v>
       </c>
-      <c r="U28" s="81" t="s">
+      <c r="U28" s="77" t="s">
         <v>824</v>
       </c>
       <c r="V28">
@@ -14461,100 +14475,100 @@
       <c r="Y28">
         <v>1</v>
       </c>
-      <c r="Z28" s="81" t="s">
+      <c r="Z28" s="77" t="s">
         <v>825</v>
       </c>
-      <c r="AA28" s="81" t="s">
+      <c r="AA28" s="77" t="s">
         <v>826</v>
       </c>
-      <c r="AB28" s="81" t="s">
+      <c r="AB28" s="77" t="s">
         <v>827</v>
       </c>
       <c r="AC28">
         <v>322375</v>
       </c>
-      <c r="AD28" s="81">
+      <c r="AD28" s="77">
         <v>2425.7013219999999</v>
       </c>
-      <c r="AE28" s="81">
+      <c r="AE28" s="77">
         <v>6.6442465235469204</v>
       </c>
-      <c r="AF28" s="81">
+      <c r="AF28" s="77">
         <v>6979.1890000000003</v>
       </c>
-      <c r="AG28" s="81" t="s">
+      <c r="AG28" s="77" t="s">
         <v>828</v>
       </c>
-      <c r="AH28" s="81" t="s">
+      <c r="AH28" s="77" t="s">
         <v>829</v>
       </c>
-      <c r="AI28" s="81">
+      <c r="AI28" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>8.0078485924895677</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="77" t="s">
         <v>830</v>
       </c>
-      <c r="B29" s="81">
+      <c r="B29" s="77">
         <v>23079.842857342301</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="77" t="s">
         <v>504</v>
       </c>
-      <c r="D29" s="81" t="s">
+      <c r="D29" s="77" t="s">
         <v>831</v>
       </c>
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="77" t="s">
         <v>832</v>
       </c>
-      <c r="F29" s="81" t="s">
+      <c r="F29" s="77" t="s">
         <v>833</v>
       </c>
-      <c r="G29" s="81" t="s">
+      <c r="G29" s="77" t="s">
         <v>834</v>
       </c>
-      <c r="H29" s="81" t="s">
+      <c r="H29" s="77" t="s">
         <v>751</v>
       </c>
-      <c r="I29" s="81">
+      <c r="I29" s="77">
         <v>13659.242939370601</v>
       </c>
-      <c r="J29" s="81">
+      <c r="J29" s="77">
         <v>15620.252569873401</v>
       </c>
-      <c r="K29" s="81" t="s">
+      <c r="K29" s="77" t="s">
         <v>835</v>
       </c>
-      <c r="L29" s="81" t="s">
+      <c r="L29" s="77" t="s">
         <v>836</v>
       </c>
-      <c r="M29" s="81" t="s">
+      <c r="M29" s="77" t="s">
         <v>837</v>
       </c>
-      <c r="N29" s="81" t="s">
+      <c r="N29" s="77" t="s">
         <v>838</v>
       </c>
-      <c r="O29" s="81" t="s">
+      <c r="O29" s="77" t="s">
         <v>839</v>
       </c>
-      <c r="P29" s="81" t="s">
+      <c r="P29" s="77" t="s">
         <v>840</v>
       </c>
-      <c r="Q29" s="81" t="s">
+      <c r="Q29" s="77" t="s">
         <v>841</v>
       </c>
-      <c r="R29" s="81" t="s">
+      <c r="R29" s="77" t="s">
         <v>842</v>
       </c>
-      <c r="S29" s="81" t="s">
+      <c r="S29" s="77" t="s">
         <v>843</v>
       </c>
-      <c r="T29" s="81" t="s">
+      <c r="T29" s="77" t="s">
         <v>844</v>
       </c>
-      <c r="U29" s="81" t="s">
+      <c r="U29" s="77" t="s">
         <v>845</v>
       </c>
       <c r="V29">
@@ -14569,100 +14583,100 @@
       <c r="Y29">
         <v>1</v>
       </c>
-      <c r="Z29" s="81" t="s">
+      <c r="Z29" s="77" t="s">
         <v>846</v>
       </c>
-      <c r="AA29" s="81" t="s">
+      <c r="AA29" s="77" t="s">
         <v>847</v>
       </c>
-      <c r="AB29" s="81" t="s">
+      <c r="AB29" s="77" t="s">
         <v>848</v>
       </c>
       <c r="AC29">
         <v>319836</v>
       </c>
-      <c r="AD29" s="81">
+      <c r="AD29" s="77">
         <v>2537.1332269999998</v>
       </c>
-      <c r="AE29" s="81">
+      <c r="AE29" s="77">
         <v>6.8286582819136896</v>
       </c>
-      <c r="AF29" s="81">
+      <c r="AF29" s="77">
         <v>7307.6109999999999</v>
       </c>
-      <c r="AG29" s="81" t="s">
+      <c r="AG29" s="77" t="s">
         <v>849</v>
       </c>
-      <c r="AH29" s="81" t="s">
+      <c r="AH29" s="77" t="s">
         <v>850</v>
       </c>
-      <c r="AI29" s="81">
+      <c r="AI29" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>7.9155770742989029</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="77" t="s">
         <v>851</v>
       </c>
-      <c r="B30" s="81">
+      <c r="B30" s="77">
         <v>18885.121082843802</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="77" t="s">
         <v>852</v>
       </c>
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="77" t="s">
         <v>853</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="77" t="s">
         <v>854</v>
       </c>
-      <c r="F30" s="81" t="s">
+      <c r="F30" s="77" t="s">
         <v>855</v>
       </c>
-      <c r="G30" s="81" t="s">
+      <c r="G30" s="77" t="s">
         <v>856</v>
       </c>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="77" t="s">
         <v>751</v>
       </c>
-      <c r="I30" s="81">
+      <c r="I30" s="77">
         <v>13609.4423771565</v>
       </c>
-      <c r="J30" s="81">
+      <c r="J30" s="77">
         <v>15819.3011372009</v>
       </c>
-      <c r="K30" s="81" t="s">
+      <c r="K30" s="77" t="s">
         <v>857</v>
       </c>
-      <c r="L30" s="81" t="s">
+      <c r="L30" s="77" t="s">
         <v>858</v>
       </c>
-      <c r="M30" s="81" t="s">
+      <c r="M30" s="77" t="s">
         <v>859</v>
       </c>
-      <c r="N30" s="81" t="s">
+      <c r="N30" s="77" t="s">
         <v>860</v>
       </c>
-      <c r="O30" s="81" t="s">
+      <c r="O30" s="77" t="s">
         <v>861</v>
       </c>
-      <c r="P30" s="81" t="s">
+      <c r="P30" s="77" t="s">
         <v>862</v>
       </c>
-      <c r="Q30" s="81" t="s">
+      <c r="Q30" s="77" t="s">
         <v>863</v>
       </c>
-      <c r="R30" s="81" t="s">
+      <c r="R30" s="77" t="s">
         <v>864</v>
       </c>
-      <c r="S30" s="81" t="s">
+      <c r="S30" s="77" t="s">
         <v>865</v>
       </c>
-      <c r="T30" s="81" t="s">
+      <c r="T30" s="77" t="s">
         <v>866</v>
       </c>
-      <c r="U30" s="81" t="s">
+      <c r="U30" s="77" t="s">
         <v>867</v>
       </c>
       <c r="V30">
@@ -14677,100 +14691,100 @@
       <c r="Y30">
         <v>0</v>
       </c>
-      <c r="Z30" s="81" t="s">
+      <c r="Z30" s="77" t="s">
         <v>868</v>
       </c>
-      <c r="AA30" s="81" t="s">
+      <c r="AA30" s="77" t="s">
         <v>869</v>
       </c>
-      <c r="AB30" s="81" t="s">
+      <c r="AB30" s="77" t="s">
         <v>870</v>
       </c>
       <c r="AC30">
         <v>328871</v>
       </c>
-      <c r="AD30" s="81">
+      <c r="AD30" s="77">
         <v>2652.5749000000001</v>
       </c>
-      <c r="AE30" s="81">
+      <c r="AE30" s="77">
         <v>7.0835685522299396</v>
       </c>
-      <c r="AF30" s="81">
+      <c r="AF30" s="77">
         <v>7265.9070000000002</v>
       </c>
-      <c r="AG30" s="81" t="s">
+      <c r="AG30" s="77" t="s">
         <v>871</v>
       </c>
-      <c r="AH30" s="81" t="s">
+      <c r="AH30" s="77" t="s">
         <v>872</v>
       </c>
-      <c r="AI30" s="81">
+      <c r="AI30" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>9.6185602519127045</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="77" t="s">
         <v>873</v>
       </c>
-      <c r="B31" s="81">
+      <c r="B31" s="77">
         <v>20452.234645232002</v>
       </c>
-      <c r="C31" s="81" t="s">
+      <c r="C31" s="77" t="s">
         <v>680</v>
       </c>
-      <c r="D31" s="81" t="s">
+      <c r="D31" s="77" t="s">
         <v>874</v>
       </c>
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="77" t="s">
         <v>875</v>
       </c>
-      <c r="F31" s="81" t="s">
+      <c r="F31" s="77" t="s">
         <v>876</v>
       </c>
-      <c r="G31" s="81" t="s">
+      <c r="G31" s="77" t="s">
         <v>877</v>
       </c>
-      <c r="H31" s="81" t="s">
+      <c r="H31" s="77" t="s">
         <v>751</v>
       </c>
-      <c r="I31" s="81">
+      <c r="I31" s="77">
         <v>13559.641814942301</v>
       </c>
-      <c r="J31" s="81">
+      <c r="J31" s="77">
         <v>16018.3497045285</v>
       </c>
-      <c r="K31" s="81" t="s">
+      <c r="K31" s="77" t="s">
         <v>878</v>
       </c>
-      <c r="L31" s="81" t="s">
+      <c r="L31" s="77" t="s">
         <v>879</v>
       </c>
-      <c r="M31" s="81" t="s">
+      <c r="M31" s="77" t="s">
         <v>880</v>
       </c>
-      <c r="N31" s="81" t="s">
+      <c r="N31" s="77" t="s">
         <v>881</v>
       </c>
-      <c r="O31" s="81" t="s">
+      <c r="O31" s="77" t="s">
         <v>882</v>
       </c>
-      <c r="P31" s="81" t="s">
+      <c r="P31" s="77" t="s">
         <v>883</v>
       </c>
-      <c r="Q31" s="81" t="s">
+      <c r="Q31" s="77" t="s">
         <v>884</v>
       </c>
-      <c r="R31" s="81" t="s">
+      <c r="R31" s="77" t="s">
         <v>885</v>
       </c>
-      <c r="S31" s="81" t="s">
+      <c r="S31" s="77" t="s">
         <v>886</v>
       </c>
-      <c r="T31" s="81" t="s">
+      <c r="T31" s="77" t="s">
         <v>887</v>
       </c>
-      <c r="U31" s="81" t="s">
+      <c r="U31" s="77" t="s">
         <v>888</v>
       </c>
       <c r="V31">
@@ -14785,100 +14799,100 @@
       <c r="Y31">
         <v>0</v>
       </c>
-      <c r="Z31" s="81" t="s">
+      <c r="Z31" s="77" t="s">
         <v>889</v>
       </c>
-      <c r="AA31" s="81" t="s">
+      <c r="AA31" s="77" t="s">
         <v>890</v>
       </c>
-      <c r="AB31" s="81" t="s">
+      <c r="AB31" s="77" t="s">
         <v>891</v>
       </c>
       <c r="AC31">
         <v>329259</v>
       </c>
-      <c r="AD31" s="81">
+      <c r="AD31" s="77">
         <v>2741.8875130000001</v>
       </c>
-      <c r="AE31" s="81">
+      <c r="AE31" s="77">
         <v>7.2316803045583997</v>
       </c>
-      <c r="AF31" s="81">
+      <c r="AF31" s="77">
         <v>7363.1559999999999</v>
       </c>
-      <c r="AG31" s="81" t="s">
+      <c r="AG31" s="77" t="s">
         <v>892</v>
       </c>
-      <c r="AH31" s="81" t="s">
+      <c r="AH31" s="77" t="s">
         <v>893</v>
       </c>
-      <c r="AI31" s="81">
+      <c r="AI31" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>9.0004296935305312</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="77" t="s">
         <v>894</v>
       </c>
-      <c r="B32" s="81">
+      <c r="B32" s="77">
         <v>22235.115223401299</v>
       </c>
-      <c r="C32" s="81" t="s">
+      <c r="C32" s="77" t="s">
         <v>895</v>
       </c>
-      <c r="D32" s="81" t="s">
+      <c r="D32" s="77" t="s">
         <v>896</v>
       </c>
-      <c r="E32" s="81" t="s">
+      <c r="E32" s="77" t="s">
         <v>875</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="F32" s="77" t="s">
         <v>897</v>
       </c>
-      <c r="G32" s="81" t="s">
+      <c r="G32" s="77" t="s">
         <v>898</v>
       </c>
-      <c r="H32" s="81" t="s">
+      <c r="H32" s="77" t="s">
         <v>751</v>
       </c>
-      <c r="I32" s="81">
+      <c r="I32" s="77">
         <v>13509.8412527282</v>
       </c>
-      <c r="J32" s="81">
+      <c r="J32" s="77">
         <v>16217.398271856</v>
       </c>
-      <c r="K32" s="81" t="s">
+      <c r="K32" s="77" t="s">
         <v>899</v>
       </c>
-      <c r="L32" s="81" t="s">
+      <c r="L32" s="77" t="s">
         <v>900</v>
       </c>
-      <c r="M32" s="81" t="s">
+      <c r="M32" s="77" t="s">
         <v>901</v>
       </c>
-      <c r="N32" s="81" t="s">
+      <c r="N32" s="77" t="s">
         <v>902</v>
       </c>
-      <c r="O32" s="81" t="s">
+      <c r="O32" s="77" t="s">
         <v>903</v>
       </c>
-      <c r="P32" s="81" t="s">
+      <c r="P32" s="77" t="s">
         <v>904</v>
       </c>
-      <c r="Q32" s="81" t="s">
+      <c r="Q32" s="77" t="s">
         <v>905</v>
       </c>
-      <c r="R32" s="81" t="s">
+      <c r="R32" s="77" t="s">
         <v>906</v>
       </c>
-      <c r="S32" s="81" t="s">
+      <c r="S32" s="77" t="s">
         <v>706</v>
       </c>
-      <c r="T32" s="81" t="s">
+      <c r="T32" s="77" t="s">
         <v>907</v>
       </c>
-      <c r="U32" s="81" t="s">
+      <c r="U32" s="77" t="s">
         <v>908</v>
       </c>
       <c r="V32">
@@ -14893,100 +14907,100 @@
       <c r="Y32">
         <v>0</v>
       </c>
-      <c r="Z32" s="81" t="s">
+      <c r="Z32" s="77" t="s">
         <v>909</v>
       </c>
-      <c r="AA32" s="81" t="s">
+      <c r="AA32" s="77" t="s">
         <v>910</v>
       </c>
-      <c r="AB32" s="81" t="s">
+      <c r="AB32" s="77" t="s">
         <v>911</v>
       </c>
       <c r="AC32">
         <v>332232</v>
       </c>
-      <c r="AD32" s="81">
+      <c r="AD32" s="77">
         <v>2805.494115</v>
       </c>
-      <c r="AE32" s="81">
+      <c r="AE32" s="77">
         <v>7.3250370291737896</v>
       </c>
-      <c r="AF32" s="81">
+      <c r="AF32" s="77">
         <v>7383.5630000000001</v>
       </c>
-      <c r="AG32" s="81" t="s">
+      <c r="AG32" s="77" t="s">
         <v>912</v>
       </c>
-      <c r="AH32" s="81" t="s">
+      <c r="AH32" s="77" t="s">
         <v>913</v>
       </c>
-      <c r="AI32" s="81">
+      <c r="AI32" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>8.3016918574691996</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="77" t="s">
         <v>914</v>
       </c>
-      <c r="B33" s="81">
+      <c r="B33" s="77">
         <v>24043.612849930701</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="C33" s="77" t="s">
         <v>418</v>
       </c>
-      <c r="D33" s="81" t="s">
+      <c r="D33" s="77" t="s">
         <v>915</v>
       </c>
-      <c r="E33" s="81" t="s">
+      <c r="E33" s="77" t="s">
         <v>916</v>
       </c>
-      <c r="F33" s="81" t="s">
+      <c r="F33" s="77" t="s">
         <v>917</v>
       </c>
-      <c r="G33" s="81" t="s">
+      <c r="G33" s="77" t="s">
         <v>918</v>
       </c>
-      <c r="H33" s="81" t="s">
+      <c r="H33" s="77" t="s">
         <v>751</v>
       </c>
-      <c r="I33" s="81">
+      <c r="I33" s="77">
         <v>13460.040690514101</v>
       </c>
-      <c r="J33" s="81">
+      <c r="J33" s="77">
         <v>16416.446839183602</v>
       </c>
-      <c r="K33" s="81" t="s">
+      <c r="K33" s="77" t="s">
         <v>919</v>
       </c>
-      <c r="L33" s="81" t="s">
+      <c r="L33" s="77" t="s">
         <v>920</v>
       </c>
-      <c r="M33" s="81" t="s">
+      <c r="M33" s="77" t="s">
         <v>921</v>
       </c>
-      <c r="N33" s="81" t="s">
+      <c r="N33" s="77" t="s">
         <v>922</v>
       </c>
-      <c r="O33" s="81" t="s">
+      <c r="O33" s="77" t="s">
         <v>923</v>
       </c>
-      <c r="P33" s="81" t="s">
+      <c r="P33" s="77" t="s">
         <v>924</v>
       </c>
-      <c r="Q33" s="81" t="s">
+      <c r="Q33" s="77" t="s">
         <v>925</v>
       </c>
-      <c r="R33" s="81" t="s">
+      <c r="R33" s="77" t="s">
         <v>926</v>
       </c>
-      <c r="S33" s="81" t="s">
+      <c r="S33" s="77" t="s">
         <v>927</v>
       </c>
-      <c r="T33" s="81" t="s">
+      <c r="T33" s="77" t="s">
         <v>928</v>
       </c>
-      <c r="U33" s="81" t="s">
+      <c r="U33" s="77" t="s">
         <v>929</v>
       </c>
       <c r="V33">
@@ -15001,100 +15015,100 @@
       <c r="Y33">
         <v>0</v>
       </c>
-      <c r="Z33" s="81" t="s">
+      <c r="Z33" s="77" t="s">
         <v>930</v>
       </c>
-      <c r="AA33" s="81" t="s">
+      <c r="AA33" s="77" t="s">
         <v>931</v>
       </c>
-      <c r="AB33" s="81" t="s">
+      <c r="AB33" s="77" t="s">
         <v>932</v>
       </c>
       <c r="AC33">
         <v>317548</v>
       </c>
-      <c r="AD33" s="81">
+      <c r="AD33" s="77">
         <v>2600.0428149999998</v>
       </c>
-      <c r="AE33" s="81">
+      <c r="AE33" s="77">
         <v>6.5455824882007301</v>
       </c>
-      <c r="AF33" s="81">
+      <c r="AF33" s="77">
         <v>8003.4549999999999</v>
       </c>
-      <c r="AG33" s="81" t="s">
+      <c r="AG33" s="77" t="s">
         <v>933</v>
       </c>
-      <c r="AH33" s="81" t="s">
+      <c r="AH33" s="77" t="s">
         <v>934</v>
       </c>
-      <c r="AI33" s="81">
+      <c r="AI33" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>8.3218098814370443</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="77" t="s">
         <v>935</v>
       </c>
-      <c r="B34" s="81">
+      <c r="B34" s="77">
         <v>20586.119060373301</v>
       </c>
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="77" t="s">
         <v>789</v>
       </c>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="77" t="s">
         <v>936</v>
       </c>
-      <c r="E34" s="81" t="s">
+      <c r="E34" s="77" t="s">
         <v>812</v>
       </c>
-      <c r="F34" s="81" t="s">
+      <c r="F34" s="77" t="s">
         <v>937</v>
       </c>
-      <c r="G34" s="81" t="s">
+      <c r="G34" s="77" t="s">
         <v>938</v>
       </c>
-      <c r="H34" s="81" t="s">
+      <c r="H34" s="77" t="s">
         <v>939</v>
       </c>
-      <c r="I34" s="81">
+      <c r="I34" s="77">
         <v>13867.2592287015</v>
       </c>
-      <c r="J34" s="81">
+      <c r="J34" s="77">
         <v>16417.4109000727</v>
       </c>
-      <c r="K34" s="81" t="s">
+      <c r="K34" s="77" t="s">
         <v>940</v>
       </c>
-      <c r="L34" s="81" t="s">
+      <c r="L34" s="77" t="s">
         <v>941</v>
       </c>
-      <c r="M34" s="81" t="s">
+      <c r="M34" s="77" t="s">
         <v>942</v>
       </c>
-      <c r="N34" s="81" t="s">
+      <c r="N34" s="77" t="s">
         <v>943</v>
       </c>
-      <c r="O34" s="81" t="s">
+      <c r="O34" s="77" t="s">
         <v>944</v>
       </c>
-      <c r="P34" s="81" t="s">
+      <c r="P34" s="77" t="s">
         <v>945</v>
       </c>
-      <c r="Q34" s="81" t="s">
+      <c r="Q34" s="77" t="s">
         <v>946</v>
       </c>
-      <c r="R34" s="81" t="s">
+      <c r="R34" s="77" t="s">
         <v>947</v>
       </c>
-      <c r="S34" s="81" t="s">
+      <c r="S34" s="77" t="s">
         <v>694</v>
       </c>
-      <c r="T34" s="81" t="s">
+      <c r="T34" s="77" t="s">
         <v>948</v>
       </c>
-      <c r="U34" s="81" t="s">
+      <c r="U34" s="77" t="s">
         <v>949</v>
       </c>
       <c r="V34">
@@ -15109,100 +15123,100 @@
       <c r="Y34">
         <v>0</v>
       </c>
-      <c r="Z34" s="81" t="s">
+      <c r="Z34" s="77" t="s">
         <v>950</v>
       </c>
-      <c r="AA34" s="81" t="s">
+      <c r="AA34" s="77" t="s">
         <v>951</v>
       </c>
-      <c r="AB34" s="81" t="s">
+      <c r="AB34" s="77" t="s">
         <v>952</v>
       </c>
       <c r="AC34">
         <v>330337</v>
       </c>
-      <c r="AD34" s="81">
+      <c r="AD34" s="77">
         <v>2726.7699940000002</v>
       </c>
-      <c r="AE34" s="81">
+      <c r="AE34" s="77">
         <v>6.82847585208967</v>
       </c>
-      <c r="AF34" s="81">
+      <c r="AF34" s="77">
         <v>8308.1389999999992</v>
       </c>
-      <c r="AG34" s="81" t="s">
+      <c r="AG34" s="77" t="s">
         <v>953</v>
       </c>
-      <c r="AH34" s="81" t="s">
+      <c r="AH34" s="77" t="s">
         <v>954</v>
       </c>
-      <c r="AI34" s="81">
+      <c r="AI34" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>10.089491583666842</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="77" t="s">
         <v>955</v>
       </c>
-      <c r="B35" s="81">
+      <c r="B35" s="77">
         <v>21917.573773440701</v>
       </c>
-      <c r="C35" s="81" t="s">
+      <c r="C35" s="77" t="s">
         <v>956</v>
       </c>
-      <c r="D35" s="81" t="s">
+      <c r="D35" s="77" t="s">
         <v>957</v>
       </c>
-      <c r="E35" s="81" t="s">
+      <c r="E35" s="77" t="s">
         <v>791</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="77" t="s">
         <v>958</v>
       </c>
-      <c r="G35" s="81" t="s">
+      <c r="G35" s="77" t="s">
         <v>959</v>
       </c>
-      <c r="H35" s="81" t="s">
+      <c r="H35" s="77" t="s">
         <v>960</v>
       </c>
-      <c r="I35" s="81">
+      <c r="I35" s="77">
         <v>14274.4777668889</v>
       </c>
-      <c r="J35" s="81">
+      <c r="J35" s="77">
         <v>16418.374960961799</v>
       </c>
-      <c r="K35" s="81" t="s">
+      <c r="K35" s="77" t="s">
         <v>961</v>
       </c>
-      <c r="L35" s="81" t="s">
+      <c r="L35" s="77" t="s">
         <v>962</v>
       </c>
-      <c r="M35" s="81" t="s">
+      <c r="M35" s="77" t="s">
         <v>963</v>
       </c>
-      <c r="N35" s="81" t="s">
+      <c r="N35" s="77" t="s">
         <v>964</v>
       </c>
-      <c r="O35" s="81" t="s">
+      <c r="O35" s="77" t="s">
         <v>965</v>
       </c>
-      <c r="P35" s="81" t="s">
+      <c r="P35" s="77" t="s">
         <v>966</v>
       </c>
-      <c r="Q35" s="81" t="s">
+      <c r="Q35" s="77" t="s">
         <v>967</v>
       </c>
-      <c r="R35" s="81" t="s">
+      <c r="R35" s="77" t="s">
         <v>968</v>
       </c>
-      <c r="S35" s="81" t="s">
+      <c r="S35" s="77" t="s">
         <v>485</v>
       </c>
-      <c r="T35" s="81" t="s">
+      <c r="T35" s="77" t="s">
         <v>969</v>
       </c>
-      <c r="U35" s="81" t="s">
+      <c r="U35" s="77" t="s">
         <v>970</v>
       </c>
       <c r="V35">
@@ -15217,100 +15231,100 @@
       <c r="Y35">
         <v>0</v>
       </c>
-      <c r="Z35" s="81" t="s">
+      <c r="Z35" s="77" t="s">
         <v>971</v>
       </c>
-      <c r="AA35" s="81" t="s">
+      <c r="AA35" s="77" t="s">
         <v>972</v>
       </c>
-      <c r="AB35" s="81" t="s">
+      <c r="AB35" s="77" t="s">
         <v>973</v>
       </c>
       <c r="AC35">
         <v>343469</v>
       </c>
-      <c r="AD35" s="81">
+      <c r="AD35" s="77">
         <v>2707.907373</v>
       </c>
-      <c r="AE35" s="81">
+      <c r="AE35" s="77">
         <v>6.5908764108440403</v>
       </c>
-      <c r="AF35" s="81">
+      <c r="AF35" s="77">
         <v>8469.1</v>
       </c>
-      <c r="AG35" s="81" t="s">
+      <c r="AG35" s="77" t="s">
         <v>974</v>
       </c>
-      <c r="AH35" s="81" t="s">
+      <c r="AH35" s="77" t="s">
         <v>975</v>
       </c>
-      <c r="AI35" s="81">
+      <c r="AI35" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>9.6601705183521442</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="77" t="s">
         <v>976</v>
       </c>
-      <c r="B36" s="81">
+      <c r="B36" s="77">
         <v>23718.216150578599</v>
       </c>
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="77" t="s">
         <v>418</v>
       </c>
-      <c r="D36" s="81" t="s">
+      <c r="D36" s="77" t="s">
         <v>977</v>
       </c>
-      <c r="E36" s="81" t="s">
+      <c r="E36" s="77" t="s">
         <v>978</v>
       </c>
-      <c r="F36" s="81" t="s">
+      <c r="F36" s="77" t="s">
         <v>979</v>
       </c>
-      <c r="G36" s="81" t="s">
+      <c r="G36" s="77" t="s">
         <v>980</v>
       </c>
-      <c r="H36" s="81" t="s">
+      <c r="H36" s="77" t="s">
         <v>981</v>
       </c>
-      <c r="I36" s="81">
+      <c r="I36" s="77">
         <v>14681.696305076201</v>
       </c>
-      <c r="J36" s="81">
+      <c r="J36" s="77">
         <v>16419.339021850999</v>
       </c>
-      <c r="K36" s="81" t="s">
+      <c r="K36" s="77" t="s">
         <v>982</v>
       </c>
-      <c r="L36" s="81" t="s">
+      <c r="L36" s="77" t="s">
         <v>983</v>
       </c>
-      <c r="M36" s="81" t="s">
+      <c r="M36" s="77" t="s">
         <v>984</v>
       </c>
-      <c r="N36" s="81" t="s">
+      <c r="N36" s="77" t="s">
         <v>985</v>
       </c>
-      <c r="O36" s="81" t="s">
+      <c r="O36" s="77" t="s">
         <v>986</v>
       </c>
-      <c r="P36" s="81" t="s">
+      <c r="P36" s="77" t="s">
         <v>987</v>
       </c>
-      <c r="Q36" s="81" t="s">
+      <c r="Q36" s="77" t="s">
         <v>988</v>
       </c>
-      <c r="R36" s="81" t="s">
+      <c r="R36" s="77" t="s">
         <v>989</v>
       </c>
-      <c r="S36" s="81" t="s">
+      <c r="S36" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="T36" s="81" t="s">
+      <c r="T36" s="77" t="s">
         <v>990</v>
       </c>
-      <c r="U36" s="81" t="s">
+      <c r="U36" s="77" t="s">
         <v>991</v>
       </c>
       <c r="V36">
@@ -15325,100 +15339,100 @@
       <c r="Y36">
         <v>0</v>
       </c>
-      <c r="Z36" s="81" t="s">
+      <c r="Z36" s="77" t="s">
         <v>992</v>
       </c>
-      <c r="AA36" s="81" t="s">
+      <c r="AA36" s="77" t="s">
         <v>993</v>
       </c>
-      <c r="AB36" s="81" t="s">
+      <c r="AB36" s="77" t="s">
         <v>994</v>
       </c>
       <c r="AC36">
         <v>351163</v>
       </c>
-      <c r="AD36" s="81">
+      <c r="AD36" s="77">
         <v>2732.7264829999999</v>
       </c>
-      <c r="AE36" s="81">
+      <c r="AE36" s="77">
         <v>6.41990877898193</v>
       </c>
-      <c r="AF36" s="81">
+      <c r="AF36" s="77">
         <v>8881.9959999999992</v>
       </c>
-      <c r="AG36" s="81" t="s">
+      <c r="AG36" s="77" t="s">
         <v>995</v>
       </c>
-      <c r="AH36" s="81" t="s">
+      <c r="AH36" s="77" t="s">
         <v>996</v>
       </c>
-      <c r="AI36" s="81">
+      <c r="AI36" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>9.361998330324818</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="77" t="s">
         <v>997</v>
       </c>
-      <c r="B37" s="81">
+      <c r="B37" s="77">
         <v>25621.2452341061</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="77" t="s">
         <v>504</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="77" t="s">
         <v>998</v>
       </c>
-      <c r="E37" s="81" t="s">
+      <c r="E37" s="77" t="s">
         <v>791</v>
       </c>
-      <c r="F37" s="81" t="s">
+      <c r="F37" s="77" t="s">
         <v>999</v>
       </c>
-      <c r="G37" s="81" t="s">
+      <c r="G37" s="77" t="s">
         <v>1000</v>
       </c>
-      <c r="H37" s="81" t="s">
+      <c r="H37" s="77" t="s">
         <v>1001</v>
       </c>
-      <c r="I37" s="81">
+      <c r="I37" s="77">
         <v>15088.914843263599</v>
       </c>
-      <c r="J37" s="81">
+      <c r="J37" s="77">
         <v>16420.303082740102</v>
       </c>
-      <c r="K37" s="81" t="s">
+      <c r="K37" s="77" t="s">
         <v>1002</v>
       </c>
-      <c r="L37" s="81" t="s">
+      <c r="L37" s="77" t="s">
         <v>1003</v>
       </c>
-      <c r="M37" s="81" t="s">
+      <c r="M37" s="77" t="s">
         <v>1004</v>
       </c>
-      <c r="N37" s="81" t="s">
+      <c r="N37" s="77" t="s">
         <v>1005</v>
       </c>
-      <c r="O37" s="81" t="s">
+      <c r="O37" s="77" t="s">
         <v>1006</v>
       </c>
-      <c r="P37" s="81" t="s">
+      <c r="P37" s="77" t="s">
         <v>1007</v>
       </c>
-      <c r="Q37" s="81" t="s">
+      <c r="Q37" s="77" t="s">
         <v>1008</v>
       </c>
-      <c r="R37" s="81" t="s">
+      <c r="R37" s="77" t="s">
         <v>1009</v>
       </c>
-      <c r="S37" s="81" t="s">
+      <c r="S37" s="77" t="s">
         <v>1010</v>
       </c>
-      <c r="T37" s="81" t="s">
+      <c r="T37" s="77" t="s">
         <v>1011</v>
       </c>
-      <c r="U37" s="81" t="s">
+      <c r="U37" s="77" t="s">
         <v>1012</v>
       </c>
       <c r="V37">
@@ -15433,100 +15447,100 @@
       <c r="Y37">
         <v>0</v>
       </c>
-      <c r="Z37" s="81" t="s">
+      <c r="Z37" s="77" t="s">
         <v>1013</v>
       </c>
-      <c r="AA37" s="81" t="s">
+      <c r="AA37" s="77" t="s">
         <v>1014</v>
       </c>
-      <c r="AB37" s="81" t="s">
+      <c r="AB37" s="77" t="s">
         <v>1015</v>
       </c>
       <c r="AC37">
         <v>356095</v>
       </c>
-      <c r="AD37" s="81">
+      <c r="AD37" s="77">
         <v>2694.292434</v>
       </c>
-      <c r="AE37" s="81">
+      <c r="AE37" s="77">
         <v>6.02349322530387</v>
       </c>
-      <c r="AF37" s="81">
+      <c r="AF37" s="77">
         <v>8689.6389999999992</v>
       </c>
-      <c r="AG37" s="81" t="s">
+      <c r="AG37" s="77" t="s">
         <v>1016</v>
       </c>
-      <c r="AH37" s="81" t="s">
+      <c r="AH37" s="77" t="s">
         <v>1017</v>
       </c>
-      <c r="AI37" s="81">
+      <c r="AI37" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>8.478938982669602</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="77" t="s">
         <v>1018</v>
       </c>
-      <c r="B38" s="81">
+      <c r="B38" s="77">
         <v>22474.464292826298</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="77" t="s">
         <v>703</v>
       </c>
-      <c r="D38" s="81" t="s">
+      <c r="D38" s="77" t="s">
         <v>1019</v>
       </c>
-      <c r="E38" s="81" t="s">
+      <c r="E38" s="77" t="s">
         <v>1020</v>
       </c>
-      <c r="F38" s="81" t="s">
+      <c r="F38" s="77" t="s">
         <v>1021</v>
       </c>
-      <c r="G38" s="81" t="s">
+      <c r="G38" s="77" t="s">
         <v>1022</v>
       </c>
-      <c r="H38" s="81" t="s">
+      <c r="H38" s="77" t="s">
         <v>1001</v>
       </c>
-      <c r="I38" s="81">
+      <c r="I38" s="77">
         <v>16180.2783904386</v>
       </c>
-      <c r="J38" s="81">
+      <c r="J38" s="77">
         <v>16493.477989654901</v>
       </c>
-      <c r="K38" s="81" t="s">
+      <c r="K38" s="77" t="s">
         <v>1023</v>
       </c>
-      <c r="L38" s="81" t="s">
+      <c r="L38" s="77" t="s">
         <v>1024</v>
       </c>
-      <c r="M38" s="81" t="s">
+      <c r="M38" s="77" t="s">
         <v>1025</v>
       </c>
-      <c r="N38" s="81" t="s">
+      <c r="N38" s="77" t="s">
         <v>1026</v>
       </c>
-      <c r="O38" s="81" t="s">
+      <c r="O38" s="77" t="s">
         <v>1027</v>
       </c>
-      <c r="P38" s="81" t="s">
+      <c r="P38" s="77" t="s">
         <v>1028</v>
       </c>
-      <c r="Q38" s="81" t="s">
+      <c r="Q38" s="77" t="s">
         <v>1029</v>
       </c>
-      <c r="R38" s="81" t="s">
+      <c r="R38" s="77" t="s">
         <v>1030</v>
       </c>
-      <c r="S38" s="81" t="s">
+      <c r="S38" s="77" t="s">
         <v>1010</v>
       </c>
-      <c r="T38" s="81" t="s">
+      <c r="T38" s="77" t="s">
         <v>1031</v>
       </c>
-      <c r="U38" s="81" t="s">
+      <c r="U38" s="77" t="s">
         <v>1032</v>
       </c>
       <c r="V38">
@@ -15541,100 +15555,100 @@
       <c r="Y38">
         <v>0</v>
       </c>
-      <c r="Z38" s="81" t="s">
+      <c r="Z38" s="77" t="s">
         <v>1033</v>
       </c>
-      <c r="AA38" s="81" t="s">
+      <c r="AA38" s="77" t="s">
         <v>1034</v>
       </c>
-      <c r="AB38" s="81" t="s">
+      <c r="AB38" s="77" t="s">
         <v>1035</v>
       </c>
       <c r="AC38">
         <v>377513</v>
       </c>
-      <c r="AD38" s="81">
+      <c r="AD38" s="77">
         <v>2836.5231600000002</v>
       </c>
-      <c r="AE38" s="81">
+      <c r="AE38" s="77">
         <v>6.4822049410604903</v>
       </c>
-      <c r="AF38" s="81">
+      <c r="AF38" s="77">
         <v>8675.7510000000002</v>
       </c>
-      <c r="AG38" s="81" t="s">
+      <c r="AG38" s="77" t="s">
         <v>1036</v>
       </c>
-      <c r="AH38" s="81" t="s">
+      <c r="AH38" s="77" t="s">
         <v>1037</v>
       </c>
-      <c r="AI38" s="81">
+      <c r="AI38" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>9.650676081708923</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="77" t="s">
         <v>1038</v>
       </c>
-      <c r="B39" s="81">
+      <c r="B39" s="77">
         <v>24969.759104845001</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="77" t="s">
         <v>504</v>
       </c>
-      <c r="D39" s="81" t="s">
+      <c r="D39" s="77" t="s">
         <v>1039</v>
       </c>
-      <c r="E39" s="81" t="s">
+      <c r="E39" s="77" t="s">
         <v>854</v>
       </c>
-      <c r="F39" s="81" t="s">
+      <c r="F39" s="77" t="s">
         <v>1040</v>
       </c>
-      <c r="G39" s="81" t="s">
+      <c r="G39" s="77" t="s">
         <v>1041</v>
       </c>
-      <c r="H39" s="81" t="s">
+      <c r="H39" s="77" t="s">
         <v>1001</v>
       </c>
-      <c r="I39" s="81">
+      <c r="I39" s="77">
         <v>17271.641937613698</v>
       </c>
-      <c r="J39" s="81">
+      <c r="J39" s="77">
         <v>16566.652896569802</v>
       </c>
-      <c r="K39" s="81" t="s">
+      <c r="K39" s="77" t="s">
         <v>1042</v>
       </c>
-      <c r="L39" s="81" t="s">
+      <c r="L39" s="77" t="s">
         <v>1043</v>
       </c>
-      <c r="M39" s="81" t="s">
+      <c r="M39" s="77" t="s">
         <v>1044</v>
       </c>
-      <c r="N39" s="81" t="s">
+      <c r="N39" s="77" t="s">
         <v>1045</v>
       </c>
-      <c r="O39" s="81" t="s">
+      <c r="O39" s="77" t="s">
         <v>1046</v>
       </c>
-      <c r="P39" s="81" t="s">
+      <c r="P39" s="77" t="s">
         <v>1047</v>
       </c>
-      <c r="Q39" s="81" t="s">
+      <c r="Q39" s="77" t="s">
         <v>1048</v>
       </c>
-      <c r="R39" s="81" t="s">
+      <c r="R39" s="77" t="s">
         <v>1049</v>
       </c>
-      <c r="S39" s="81" t="s">
+      <c r="S39" s="77" t="s">
         <v>1050</v>
       </c>
-      <c r="T39" s="81" t="s">
+      <c r="T39" s="77" t="s">
         <v>1051</v>
       </c>
-      <c r="U39" s="81" t="s">
+      <c r="U39" s="77" t="s">
         <v>1052</v>
       </c>
       <c r="V39">
@@ -15649,100 +15663,100 @@
       <c r="Y39">
         <v>0</v>
       </c>
-      <c r="Z39" s="81" t="s">
+      <c r="Z39" s="77" t="s">
         <v>1053</v>
       </c>
-      <c r="AA39" s="81" t="s">
+      <c r="AA39" s="77" t="s">
         <v>1054</v>
       </c>
-      <c r="AB39" s="81" t="s">
+      <c r="AB39" s="77" t="s">
         <v>1055</v>
       </c>
       <c r="AC39">
         <v>378582</v>
       </c>
-      <c r="AD39" s="81">
+      <c r="AD39" s="77">
         <v>2781.1739280000002</v>
       </c>
-      <c r="AE39" s="81">
+      <c r="AE39" s="77">
         <v>6.1595017328480903</v>
       </c>
-      <c r="AF39" s="81">
+      <c r="AF39" s="77">
         <v>8898.6440000000002</v>
       </c>
-      <c r="AG39" s="81" t="s">
+      <c r="AG39" s="77" t="s">
         <v>1056</v>
       </c>
-      <c r="AH39" s="81" t="s">
+      <c r="AH39" s="77" t="s">
         <v>1057</v>
       </c>
-      <c r="AI39" s="81">
+      <c r="AI39" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>8.9094211548414108</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="77" t="s">
         <v>1058</v>
       </c>
-      <c r="B40" s="81">
+      <c r="B40" s="77">
         <v>27196.843549961301</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="77" t="s">
         <v>1059</v>
       </c>
-      <c r="D40" s="81" t="s">
+      <c r="D40" s="77" t="s">
         <v>1060</v>
       </c>
-      <c r="E40" s="81" t="s">
+      <c r="E40" s="77" t="s">
         <v>1061</v>
       </c>
-      <c r="F40" s="81" t="s">
+      <c r="F40" s="77" t="s">
         <v>1062</v>
       </c>
-      <c r="G40" s="81" t="s">
+      <c r="G40" s="77" t="s">
         <v>1063</v>
       </c>
-      <c r="H40" s="81" t="s">
+      <c r="H40" s="77" t="s">
         <v>1001</v>
       </c>
-      <c r="I40" s="81">
+      <c r="I40" s="77">
         <v>18363.0054847887</v>
       </c>
-      <c r="J40" s="81">
+      <c r="J40" s="77">
         <v>16639.827803484699</v>
       </c>
-      <c r="K40" s="81" t="s">
+      <c r="K40" s="77" t="s">
         <v>1064</v>
       </c>
-      <c r="L40" s="81" t="s">
+      <c r="L40" s="77" t="s">
         <v>1065</v>
       </c>
-      <c r="M40" s="81" t="s">
+      <c r="M40" s="77" t="s">
         <v>1066</v>
       </c>
-      <c r="N40" s="81" t="s">
+      <c r="N40" s="77" t="s">
         <v>1067</v>
       </c>
-      <c r="O40" s="81" t="s">
+      <c r="O40" s="77" t="s">
         <v>1068</v>
       </c>
-      <c r="P40" s="81" t="s">
+      <c r="P40" s="77" t="s">
         <v>1069</v>
       </c>
-      <c r="Q40" s="81" t="s">
+      <c r="Q40" s="77" t="s">
         <v>1070</v>
       </c>
-      <c r="R40" s="81" t="s">
+      <c r="R40" s="77" t="s">
         <v>1071</v>
       </c>
-      <c r="S40" s="81" t="s">
+      <c r="S40" s="77" t="s">
         <v>1072</v>
       </c>
-      <c r="T40" s="81" t="s">
+      <c r="T40" s="77" t="s">
         <v>1073</v>
       </c>
-      <c r="U40" s="81" t="s">
+      <c r="U40" s="77" t="s">
         <v>1074</v>
       </c>
       <c r="V40">
@@ -15757,100 +15771,100 @@
       <c r="Y40">
         <v>0</v>
       </c>
-      <c r="Z40" s="81" t="s">
+      <c r="Z40" s="77" t="s">
         <v>1075</v>
       </c>
-      <c r="AA40" s="81" t="s">
+      <c r="AA40" s="77" t="s">
         <v>1076</v>
       </c>
-      <c r="AB40" s="81" t="s">
+      <c r="AB40" s="77" t="s">
         <v>1077</v>
       </c>
       <c r="AC40">
         <v>381672</v>
       </c>
-      <c r="AD40" s="81">
+      <c r="AD40" s="77">
         <v>2849.1420910000002</v>
       </c>
-      <c r="AE40" s="81">
+      <c r="AE40" s="77">
         <v>6.0620364898945303</v>
       </c>
-      <c r="AF40" s="81">
+      <c r="AF40" s="77">
         <v>9043.2790000000005</v>
       </c>
-      <c r="AG40" s="81" t="s">
+      <c r="AG40" s="77" t="s">
         <v>1078</v>
       </c>
-      <c r="AH40" s="81" t="s">
+      <c r="AH40" s="77" t="s">
         <v>1079</v>
       </c>
-      <c r="AI40" s="81">
+      <c r="AI40" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>8.3128019832405045</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="77" t="s">
         <v>1080</v>
       </c>
-      <c r="B41" s="81">
+      <c r="B41" s="77">
         <v>29220.584141502401</v>
       </c>
-      <c r="C41" s="81" t="s">
+      <c r="C41" s="77" t="s">
         <v>462</v>
       </c>
-      <c r="D41" s="81" t="s">
+      <c r="D41" s="77" t="s">
         <v>1081</v>
       </c>
-      <c r="E41" s="81" t="s">
+      <c r="E41" s="77" t="s">
         <v>1061</v>
       </c>
-      <c r="F41" s="81" t="s">
+      <c r="F41" s="77" t="s">
         <v>1082</v>
       </c>
-      <c r="G41" s="81" t="s">
+      <c r="G41" s="77" t="s">
         <v>1083</v>
       </c>
-      <c r="H41" s="81" t="s">
+      <c r="H41" s="77" t="s">
         <v>1001</v>
       </c>
-      <c r="I41" s="81">
+      <c r="I41" s="77">
         <v>19454.369031963699</v>
       </c>
-      <c r="J41" s="81">
+      <c r="J41" s="77">
         <v>16713.002710399502</v>
       </c>
-      <c r="K41" s="81" t="s">
+      <c r="K41" s="77" t="s">
         <v>1084</v>
       </c>
-      <c r="L41" s="81" t="s">
+      <c r="L41" s="77" t="s">
         <v>1085</v>
       </c>
-      <c r="M41" s="81" t="s">
+      <c r="M41" s="77" t="s">
         <v>1086</v>
       </c>
-      <c r="N41" s="81" t="s">
+      <c r="N41" s="77" t="s">
         <v>1087</v>
       </c>
-      <c r="O41" s="81" t="s">
+      <c r="O41" s="77" t="s">
         <v>1088</v>
       </c>
-      <c r="P41" s="81" t="s">
+      <c r="P41" s="77" t="s">
         <v>1089</v>
       </c>
-      <c r="Q41" s="81" t="s">
+      <c r="Q41" s="77" t="s">
         <v>1090</v>
       </c>
-      <c r="R41" s="81" t="s">
+      <c r="R41" s="77" t="s">
         <v>1091</v>
       </c>
-      <c r="S41" s="81" t="s">
+      <c r="S41" s="77" t="s">
         <v>1050</v>
       </c>
-      <c r="T41" s="81" t="s">
+      <c r="T41" s="77" t="s">
         <v>1092</v>
       </c>
-      <c r="U41" s="81" t="s">
+      <c r="U41" s="77" t="s">
         <v>1093</v>
       </c>
       <c r="V41">
@@ -15865,100 +15879,100 @@
       <c r="Y41">
         <v>0</v>
       </c>
-      <c r="Z41" s="81" t="s">
+      <c r="Z41" s="77" t="s">
         <v>1094</v>
       </c>
-      <c r="AA41" s="81" t="s">
+      <c r="AA41" s="77" t="s">
         <v>1095</v>
       </c>
-      <c r="AB41" s="81" t="s">
+      <c r="AB41" s="77" t="s">
         <v>1096</v>
       </c>
       <c r="AC41">
         <v>381592</v>
       </c>
-      <c r="AD41" s="81">
+      <c r="AD41" s="77">
         <v>2723.1614829999999</v>
       </c>
-      <c r="AE41" s="81">
+      <c r="AE41" s="77">
         <v>5.3870669553991197</v>
       </c>
-      <c r="AF41" s="81">
+      <c r="AF41" s="77">
         <v>9176.3960000000006</v>
       </c>
-      <c r="AG41" s="81" t="s">
+      <c r="AG41" s="77" t="s">
         <v>1097</v>
       </c>
-      <c r="AH41" s="81" t="s">
+      <c r="AH41" s="77" t="s">
         <v>1098</v>
       </c>
-      <c r="AI41" s="81">
+      <c r="AI41" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>7.8509689912107525</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="77" t="s">
         <v>1099</v>
       </c>
-      <c r="B42" s="81">
+      <c r="B42" s="77">
         <v>24552.081752661499</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="77" t="s">
         <v>1100</v>
       </c>
-      <c r="D42" s="81" t="s">
+      <c r="D42" s="77" t="s">
         <v>1101</v>
       </c>
-      <c r="E42" s="81" t="s">
+      <c r="E42" s="77" t="s">
         <v>1102</v>
       </c>
-      <c r="F42" s="81" t="s">
+      <c r="F42" s="77" t="s">
         <v>1103</v>
       </c>
-      <c r="G42" s="81" t="s">
+      <c r="G42" s="77" t="s">
         <v>1104</v>
       </c>
-      <c r="H42" s="81" t="s">
+      <c r="H42" s="77" t="s">
         <v>1105</v>
       </c>
-      <c r="I42" s="81">
+      <c r="I42" s="77">
         <v>19637.975976106802</v>
       </c>
-      <c r="J42" s="81">
+      <c r="J42" s="77">
         <v>17088.3814035256</v>
       </c>
-      <c r="K42" s="81" t="s">
+      <c r="K42" s="77" t="s">
         <v>1106</v>
       </c>
-      <c r="L42" s="81" t="s">
+      <c r="L42" s="77" t="s">
         <v>1107</v>
       </c>
-      <c r="M42" s="81" t="s">
+      <c r="M42" s="77" t="s">
         <v>1108</v>
       </c>
-      <c r="N42" s="81" t="s">
+      <c r="N42" s="77" t="s">
         <v>1109</v>
       </c>
-      <c r="O42" s="81" t="s">
+      <c r="O42" s="77" t="s">
         <v>1110</v>
       </c>
-      <c r="P42" s="81" t="s">
+      <c r="P42" s="77" t="s">
         <v>1111</v>
       </c>
-      <c r="Q42" s="81" t="s">
+      <c r="Q42" s="77" t="s">
         <v>1112</v>
       </c>
-      <c r="R42" s="81" t="s">
+      <c r="R42" s="77" t="s">
         <v>1113</v>
       </c>
-      <c r="S42" s="81" t="s">
+      <c r="S42" s="77" t="s">
         <v>1114</v>
       </c>
-      <c r="T42" s="81" t="s">
+      <c r="T42" s="77" t="s">
         <v>1115</v>
       </c>
-      <c r="U42" s="81" t="s">
+      <c r="U42" s="77" t="s">
         <v>1116</v>
       </c>
       <c r="V42">
@@ -15973,100 +15987,100 @@
       <c r="Y42">
         <v>0</v>
       </c>
-      <c r="Z42" s="81" t="s">
+      <c r="Z42" s="77" t="s">
         <v>1117</v>
       </c>
-      <c r="AA42" s="81" t="s">
+      <c r="AA42" s="77" t="s">
         <v>1118</v>
       </c>
-      <c r="AB42" s="81" t="s">
+      <c r="AB42" s="77" t="s">
         <v>1119</v>
       </c>
       <c r="AC42">
         <v>397792</v>
       </c>
-      <c r="AD42" s="81">
+      <c r="AD42" s="77">
         <v>3217.5735220000001</v>
       </c>
-      <c r="AE42" s="81">
+      <c r="AE42" s="77">
         <v>6.2730308828540302</v>
       </c>
-      <c r="AF42" s="81">
+      <c r="AF42" s="77">
         <v>9497.3410000000003</v>
       </c>
-      <c r="AG42" s="81" t="s">
+      <c r="AG42" s="77" t="s">
         <v>1120</v>
       </c>
-      <c r="AH42" s="81" t="s">
+      <c r="AH42" s="77" t="s">
         <v>1121</v>
       </c>
-      <c r="AI42" s="81">
+      <c r="AI42" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>9.6706066472046377</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="77" t="s">
         <v>1122</v>
       </c>
-      <c r="B43" s="81">
+      <c r="B43" s="77">
         <v>26567.530502154899</v>
       </c>
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="77" t="s">
         <v>658</v>
       </c>
-      <c r="D43" s="81" t="s">
+      <c r="D43" s="77" t="s">
         <v>1123</v>
       </c>
-      <c r="E43" s="81" t="s">
+      <c r="E43" s="77" t="s">
         <v>1124</v>
       </c>
-      <c r="F43" s="81" t="s">
+      <c r="F43" s="77" t="s">
         <v>1125</v>
       </c>
-      <c r="G43" s="81" t="s">
+      <c r="G43" s="77" t="s">
         <v>1126</v>
       </c>
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="77" t="s">
         <v>1127</v>
       </c>
-      <c r="I43" s="81">
+      <c r="I43" s="77">
         <v>19821.582920249799</v>
       </c>
-      <c r="J43" s="81">
+      <c r="J43" s="77">
         <v>17463.760096651698</v>
       </c>
-      <c r="K43" s="81" t="s">
+      <c r="K43" s="77" t="s">
         <v>1128</v>
       </c>
-      <c r="L43" s="81" t="s">
+      <c r="L43" s="77" t="s">
         <v>1129</v>
       </c>
-      <c r="M43" s="81" t="s">
+      <c r="M43" s="77" t="s">
         <v>1130</v>
       </c>
-      <c r="N43" s="81" t="s">
+      <c r="N43" s="77" t="s">
         <v>1131</v>
       </c>
-      <c r="O43" s="81" t="s">
+      <c r="O43" s="77" t="s">
         <v>1132</v>
       </c>
-      <c r="P43" s="81" t="s">
+      <c r="P43" s="77" t="s">
         <v>1133</v>
       </c>
-      <c r="Q43" s="81" t="s">
+      <c r="Q43" s="77" t="s">
         <v>1134</v>
       </c>
-      <c r="R43" s="81" t="s">
+      <c r="R43" s="77" t="s">
         <v>1135</v>
       </c>
-      <c r="S43" s="81" t="s">
+      <c r="S43" s="77" t="s">
         <v>1136</v>
       </c>
-      <c r="T43" s="81" t="s">
+      <c r="T43" s="77" t="s">
         <v>1137</v>
       </c>
-      <c r="U43" s="81" t="s">
+      <c r="U43" s="77" t="s">
         <v>1138</v>
       </c>
       <c r="V43">
@@ -16081,100 +16095,100 @@
       <c r="Y43">
         <v>0</v>
       </c>
-      <c r="Z43" s="81" t="s">
+      <c r="Z43" s="77" t="s">
         <v>1139</v>
       </c>
-      <c r="AA43" s="81" t="s">
+      <c r="AA43" s="77" t="s">
         <v>1140</v>
       </c>
-      <c r="AB43" s="81" t="s">
+      <c r="AB43" s="77" t="s">
         <v>1141</v>
       </c>
       <c r="AC43">
         <v>418086</v>
       </c>
-      <c r="AD43" s="81">
+      <c r="AD43" s="77">
         <v>3303.243375</v>
       </c>
-      <c r="AE43" s="81">
+      <c r="AE43" s="77">
         <v>6.3605502515666297</v>
       </c>
-      <c r="AF43" s="81">
+      <c r="AF43" s="77">
         <v>10135.102999999999</v>
       </c>
-      <c r="AG43" s="81" t="s">
+      <c r="AG43" s="77" t="s">
         <v>1142</v>
       </c>
-      <c r="AH43" s="81" t="s">
+      <c r="AH43" s="77" t="s">
         <v>1143</v>
       </c>
-      <c r="AI43" s="81">
+      <c r="AI43" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>9.5371142974484755</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A44" s="81" t="s">
+      <c r="A44" s="77" t="s">
         <v>1144</v>
       </c>
-      <c r="B44" s="81">
+      <c r="B44" s="77">
         <v>28245.508241605501</v>
       </c>
-      <c r="C44" s="81" t="s">
+      <c r="C44" s="77" t="s">
         <v>483</v>
       </c>
-      <c r="D44" s="81" t="s">
+      <c r="D44" s="77" t="s">
         <v>1145</v>
       </c>
-      <c r="E44" s="81" t="s">
+      <c r="E44" s="77" t="s">
         <v>812</v>
       </c>
-      <c r="F44" s="81" t="s">
+      <c r="F44" s="77" t="s">
         <v>1146</v>
       </c>
-      <c r="G44" s="81" t="s">
+      <c r="G44" s="77" t="s">
         <v>1147</v>
       </c>
-      <c r="H44" s="81" t="s">
+      <c r="H44" s="77" t="s">
         <v>1148</v>
       </c>
-      <c r="I44" s="81">
+      <c r="I44" s="77">
         <v>20005.189864392902</v>
       </c>
-      <c r="J44" s="81">
+      <c r="J44" s="77">
         <v>17839.138789777899</v>
       </c>
-      <c r="K44" s="81" t="s">
+      <c r="K44" s="77" t="s">
         <v>1149</v>
       </c>
-      <c r="L44" s="81" t="s">
+      <c r="L44" s="77" t="s">
         <v>1150</v>
       </c>
-      <c r="M44" s="81" t="s">
+      <c r="M44" s="77" t="s">
         <v>1151</v>
       </c>
-      <c r="N44" s="81" t="s">
+      <c r="N44" s="77" t="s">
         <v>1152</v>
       </c>
-      <c r="O44" s="81" t="s">
+      <c r="O44" s="77" t="s">
         <v>1153</v>
       </c>
-      <c r="P44" s="81" t="s">
+      <c r="P44" s="77" t="s">
         <v>1154</v>
       </c>
-      <c r="Q44" s="81" t="s">
+      <c r="Q44" s="77" t="s">
         <v>1155</v>
       </c>
-      <c r="R44" s="81" t="s">
+      <c r="R44" s="77" t="s">
         <v>1156</v>
       </c>
-      <c r="S44" s="81" t="s">
+      <c r="S44" s="77" t="s">
         <v>1157</v>
       </c>
-      <c r="T44" s="81" t="s">
+      <c r="T44" s="77" t="s">
         <v>1158</v>
       </c>
-      <c r="U44" s="81" t="s">
+      <c r="U44" s="77" t="s">
         <v>1159</v>
       </c>
       <c r="V44">
@@ -16189,100 +16203,100 @@
       <c r="Y44">
         <v>0</v>
       </c>
-      <c r="Z44" s="81" t="s">
+      <c r="Z44" s="77" t="s">
         <v>1160</v>
       </c>
-      <c r="AA44" s="81" t="s">
+      <c r="AA44" s="77" t="s">
         <v>1161</v>
       </c>
-      <c r="AB44" s="81" t="s">
+      <c r="AB44" s="77" t="s">
         <v>1162</v>
       </c>
       <c r="AC44">
         <v>423077</v>
       </c>
-      <c r="AD44" s="81">
+      <c r="AD44" s="77">
         <v>3388.8087519999999</v>
       </c>
-      <c r="AE44" s="81">
+      <c r="AE44" s="77">
         <v>6.3693639831565001</v>
       </c>
-      <c r="AF44" s="81">
+      <c r="AF44" s="77">
         <v>10597.713</v>
       </c>
-      <c r="AG44" s="81" t="s">
+      <c r="AG44" s="77" t="s">
         <v>1163</v>
       </c>
-      <c r="AH44" s="81" t="s">
+      <c r="AH44" s="77" t="s">
         <v>1164</v>
       </c>
-      <c r="AI44" s="81">
+      <c r="AI44" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>9.3799985021951375</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="77" t="s">
         <v>1165</v>
       </c>
-      <c r="B45" s="81">
+      <c r="B45" s="77">
         <v>29876.415910811698</v>
       </c>
-      <c r="C45" s="81" t="s">
+      <c r="C45" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="D45" s="81" t="s">
+      <c r="D45" s="77" t="s">
         <v>1167</v>
       </c>
-      <c r="E45" s="81" t="s">
+      <c r="E45" s="77" t="s">
         <v>812</v>
       </c>
-      <c r="F45" s="81" t="s">
+      <c r="F45" s="77" t="s">
         <v>1168</v>
       </c>
-      <c r="G45" s="81" t="s">
+      <c r="G45" s="77" t="s">
         <v>1169</v>
       </c>
-      <c r="H45" s="81" t="s">
+      <c r="H45" s="77" t="s">
         <v>1170</v>
       </c>
-      <c r="I45" s="81">
+      <c r="I45" s="77">
         <v>20188.796808536001</v>
       </c>
-      <c r="J45" s="81">
+      <c r="J45" s="77">
         <v>18214.517482904001</v>
       </c>
-      <c r="K45" s="81" t="s">
+      <c r="K45" s="77" t="s">
         <v>1171</v>
       </c>
-      <c r="L45" s="81" t="s">
+      <c r="L45" s="77" t="s">
         <v>1172</v>
       </c>
-      <c r="M45" s="81" t="s">
+      <c r="M45" s="77" t="s">
         <v>1173</v>
       </c>
-      <c r="N45" s="81" t="s">
+      <c r="N45" s="77" t="s">
         <v>1174</v>
       </c>
-      <c r="O45" s="81" t="s">
+      <c r="O45" s="77" t="s">
         <v>1175</v>
       </c>
-      <c r="P45" s="81" t="s">
+      <c r="P45" s="77" t="s">
         <v>1176</v>
       </c>
-      <c r="Q45" s="81" t="s">
+      <c r="Q45" s="77" t="s">
         <v>1177</v>
       </c>
-      <c r="R45" s="81" t="s">
+      <c r="R45" s="77" t="s">
         <v>1178</v>
       </c>
-      <c r="S45" s="81" t="s">
+      <c r="S45" s="77" t="s">
         <v>1072</v>
       </c>
-      <c r="T45" s="81" t="s">
+      <c r="T45" s="77" t="s">
         <v>1179</v>
       </c>
-      <c r="U45" s="81" t="s">
+      <c r="U45" s="77" t="s">
         <v>1180</v>
       </c>
       <c r="V45">
@@ -16297,100 +16311,100 @@
       <c r="Y45">
         <v>0</v>
       </c>
-      <c r="Z45" s="81" t="s">
+      <c r="Z45" s="77" t="s">
         <v>1181</v>
       </c>
-      <c r="AA45" s="81" t="s">
+      <c r="AA45" s="77" t="s">
         <v>1182</v>
       </c>
-      <c r="AB45" s="81" t="s">
+      <c r="AB45" s="77" t="s">
         <v>1183</v>
       </c>
       <c r="AC45">
         <v>443983</v>
       </c>
-      <c r="AD45" s="81">
+      <c r="AD45" s="77">
         <v>3258.4121220000002</v>
       </c>
-      <c r="AE45" s="81">
+      <c r="AE45" s="77">
         <v>5.8761856858070098</v>
       </c>
-      <c r="AF45" s="81">
+      <c r="AF45" s="77">
         <v>10171.932000000001</v>
       </c>
-      <c r="AG45" s="81" t="s">
+      <c r="AG45" s="77" t="s">
         <v>1184</v>
       </c>
-      <c r="AH45" s="81" t="s">
+      <c r="AH45" s="77" t="s">
         <v>1185</v>
       </c>
-      <c r="AI45" s="81">
+      <c r="AI45" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>8.5116735808987851</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="77" t="s">
         <v>1186</v>
       </c>
-      <c r="B46" s="81">
+      <c r="B46" s="77">
         <v>24756.713680356799</v>
       </c>
-      <c r="C46" s="81" t="s">
+      <c r="C46" s="77" t="s">
         <v>956</v>
       </c>
-      <c r="D46" s="81" t="s">
+      <c r="D46" s="77" t="s">
         <v>1187</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="77" t="s">
         <v>1124</v>
       </c>
-      <c r="F46" s="81" t="s">
+      <c r="F46" s="77" t="s">
         <v>1188</v>
       </c>
-      <c r="G46" s="81" t="s">
+      <c r="G46" s="77" t="s">
         <v>1189</v>
       </c>
-      <c r="H46" s="81" t="s">
+      <c r="H46" s="77" t="s">
         <v>1127</v>
       </c>
-      <c r="I46" s="81">
+      <c r="I46" s="77">
         <v>19821.370090205499</v>
       </c>
-      <c r="J46" s="81">
+      <c r="J46" s="77">
         <v>19366.276728203</v>
       </c>
-      <c r="K46" s="81" t="s">
+      <c r="K46" s="77" t="s">
         <v>1190</v>
       </c>
-      <c r="L46" s="81" t="s">
+      <c r="L46" s="77" t="s">
         <v>1191</v>
       </c>
-      <c r="M46" s="81" t="s">
+      <c r="M46" s="77" t="s">
         <v>1192</v>
       </c>
-      <c r="N46" s="81" t="s">
+      <c r="N46" s="77" t="s">
         <v>1193</v>
       </c>
-      <c r="O46" s="81" t="s">
+      <c r="O46" s="77" t="s">
         <v>1194</v>
       </c>
-      <c r="P46" s="81" t="s">
+      <c r="P46" s="77" t="s">
         <v>1195</v>
       </c>
-      <c r="Q46" s="81" t="s">
+      <c r="Q46" s="77" t="s">
         <v>1196</v>
       </c>
-      <c r="R46" s="81" t="s">
+      <c r="R46" s="77" t="s">
         <v>1197</v>
       </c>
-      <c r="S46" s="81" t="s">
+      <c r="S46" s="77" t="s">
         <v>1198</v>
       </c>
-      <c r="T46" s="81" t="s">
+      <c r="T46" s="77" t="s">
         <v>1199</v>
       </c>
-      <c r="U46" s="81" t="s">
+      <c r="U46" s="77" t="s">
         <v>1200</v>
       </c>
       <c r="V46">
@@ -16405,100 +16419,100 @@
       <c r="Y46">
         <v>0</v>
       </c>
-      <c r="Z46" s="81" t="s">
+      <c r="Z46" s="77" t="s">
         <v>1201</v>
       </c>
-      <c r="AA46" s="81" t="s">
+      <c r="AA46" s="77" t="s">
         <v>1202</v>
       </c>
-      <c r="AB46" s="81" t="s">
+      <c r="AB46" s="77" t="s">
         <v>1203</v>
       </c>
       <c r="AC46">
         <v>443634</v>
       </c>
-      <c r="AD46" s="81">
+      <c r="AD46" s="77">
         <v>3355.7874240000001</v>
       </c>
-      <c r="AE46" s="81">
+      <c r="AE46" s="77">
         <v>5.9358582176356096</v>
       </c>
-      <c r="AF46" s="81">
+      <c r="AF46" s="77">
         <v>10339.517645661201</v>
       </c>
-      <c r="AG46" s="81" t="s">
+      <c r="AG46" s="77" t="s">
         <v>1204</v>
       </c>
-      <c r="AH46" s="81" t="s">
+      <c r="AH46" s="77" t="s">
         <v>1205</v>
       </c>
-      <c r="AI46" s="81">
+      <c r="AI46" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>10.44112496024168</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47" s="81" t="s">
+      <c r="A47" s="77" t="s">
         <v>1206</v>
       </c>
-      <c r="B47" s="81">
+      <c r="B47" s="77">
         <v>23661.924729717899</v>
       </c>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="77" t="s">
         <v>1207</v>
       </c>
-      <c r="D47" s="81" t="s">
+      <c r="D47" s="77" t="s">
         <v>1208</v>
       </c>
-      <c r="E47" s="81" t="s">
+      <c r="E47" s="77" t="s">
         <v>791</v>
       </c>
-      <c r="F47" s="81" t="s">
+      <c r="F47" s="77" t="s">
         <v>1209</v>
       </c>
-      <c r="G47" s="81" t="s">
+      <c r="G47" s="77" t="s">
         <v>1210</v>
       </c>
-      <c r="H47" s="81" t="s">
+      <c r="H47" s="77" t="s">
         <v>1001</v>
       </c>
-      <c r="I47" s="81">
+      <c r="I47" s="77">
         <v>19453.943371874899</v>
       </c>
-      <c r="J47" s="81">
+      <c r="J47" s="77">
         <v>20518.035973501999</v>
       </c>
-      <c r="K47" s="81" t="s">
+      <c r="K47" s="77" t="s">
         <v>1211</v>
       </c>
-      <c r="L47" s="81" t="s">
+      <c r="L47" s="77" t="s">
         <v>1212</v>
       </c>
-      <c r="M47" s="81" t="s">
+      <c r="M47" s="77" t="s">
         <v>1213</v>
       </c>
-      <c r="N47" s="81" t="s">
+      <c r="N47" s="77" t="s">
         <v>1214</v>
       </c>
-      <c r="O47" s="81" t="s">
+      <c r="O47" s="77" t="s">
         <v>1215</v>
       </c>
-      <c r="P47" s="81" t="s">
+      <c r="P47" s="77" t="s">
         <v>1216</v>
       </c>
-      <c r="Q47" s="81" t="s">
+      <c r="Q47" s="77" t="s">
         <v>1217</v>
       </c>
-      <c r="R47" s="81" t="s">
+      <c r="R47" s="77" t="s">
         <v>1218</v>
       </c>
-      <c r="S47" s="81" t="s">
+      <c r="S47" s="77" t="s">
         <v>1219</v>
       </c>
-      <c r="T47" s="81" t="s">
+      <c r="T47" s="77" t="s">
         <v>1220</v>
       </c>
-      <c r="U47" s="81" t="s">
+      <c r="U47" s="77" t="s">
         <v>1221</v>
       </c>
       <c r="V47">
@@ -16513,100 +16527,100 @@
       <c r="Y47">
         <v>0</v>
       </c>
-      <c r="Z47" s="81" t="s">
+      <c r="Z47" s="77" t="s">
         <v>1222</v>
       </c>
-      <c r="AA47" s="81" t="s">
+      <c r="AA47" s="77" t="s">
         <v>1223</v>
       </c>
-      <c r="AB47" s="81" t="s">
+      <c r="AB47" s="77" t="s">
         <v>1224</v>
       </c>
       <c r="AC47">
         <v>438082</v>
       </c>
-      <c r="AD47" s="81">
+      <c r="AD47" s="77">
         <v>3412.248212</v>
       </c>
-      <c r="AE47" s="81">
+      <c r="AE47" s="77">
         <v>5.9047740882795203</v>
       </c>
-      <c r="AF47" s="81">
+      <c r="AF47" s="77">
         <v>11171.059874795101</v>
       </c>
-      <c r="AG47" s="81" t="s">
+      <c r="AG47" s="77" t="s">
         <v>1225</v>
       </c>
-      <c r="AH47" s="81" t="s">
+      <c r="AH47" s="77" t="s">
         <v>1226</v>
       </c>
-      <c r="AI47" s="81">
+      <c r="AI47" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>11.802780207441185</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="77" t="s">
         <v>1227</v>
       </c>
-      <c r="B48" s="81">
+      <c r="B48" s="77">
         <v>27580.834388713502</v>
       </c>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="77" t="s">
         <v>1228</v>
       </c>
-      <c r="D48" s="81" t="s">
+      <c r="D48" s="77" t="s">
         <v>1229</v>
       </c>
-      <c r="E48" s="81" t="s">
+      <c r="E48" s="77" t="s">
         <v>1230</v>
       </c>
-      <c r="F48" s="81" t="s">
+      <c r="F48" s="77" t="s">
         <v>1231</v>
       </c>
-      <c r="G48" s="81" t="s">
+      <c r="G48" s="77" t="s">
         <v>1232</v>
       </c>
-      <c r="H48" s="81" t="s">
+      <c r="H48" s="77" t="s">
         <v>1233</v>
       </c>
-      <c r="I48" s="81">
+      <c r="I48" s="77">
         <v>19086.516653544299</v>
       </c>
-      <c r="J48" s="81">
+      <c r="J48" s="77">
         <v>21669.795218800999</v>
       </c>
-      <c r="K48" s="81" t="s">
+      <c r="K48" s="77" t="s">
         <v>1234</v>
       </c>
-      <c r="L48" s="81" t="s">
+      <c r="L48" s="77" t="s">
         <v>1235</v>
       </c>
-      <c r="M48" s="81" t="s">
+      <c r="M48" s="77" t="s">
         <v>1236</v>
       </c>
-      <c r="N48" s="81" t="s">
+      <c r="N48" s="77" t="s">
         <v>1237</v>
       </c>
-      <c r="O48" s="81" t="s">
+      <c r="O48" s="77" t="s">
         <v>1238</v>
       </c>
-      <c r="P48" s="81" t="s">
+      <c r="P48" s="77" t="s">
         <v>1239</v>
       </c>
-      <c r="Q48" s="81" t="s">
+      <c r="Q48" s="77" t="s">
         <v>1240</v>
       </c>
-      <c r="R48" s="81" t="s">
+      <c r="R48" s="77" t="s">
         <v>1241</v>
       </c>
-      <c r="S48" s="81" t="s">
+      <c r="S48" s="77" t="s">
         <v>1242</v>
       </c>
-      <c r="T48" s="81" t="s">
+      <c r="T48" s="77" t="s">
         <v>1243</v>
       </c>
-      <c r="U48" s="81" t="s">
+      <c r="U48" s="77" t="s">
         <v>1244</v>
       </c>
       <c r="V48">
@@ -16621,100 +16635,100 @@
       <c r="Y48">
         <v>0</v>
       </c>
-      <c r="Z48" s="81" t="s">
+      <c r="Z48" s="77" t="s">
         <v>1245</v>
       </c>
-      <c r="AA48" s="81" t="s">
+      <c r="AA48" s="77" t="s">
         <v>1246</v>
       </c>
-      <c r="AB48" s="81" t="s">
+      <c r="AB48" s="77" t="s">
         <v>1247</v>
       </c>
       <c r="AC48">
         <v>444309</v>
       </c>
-      <c r="AD48" s="81">
+      <c r="AD48" s="77">
         <v>3553.6191370000001</v>
       </c>
-      <c r="AE48" s="81">
+      <c r="AE48" s="77">
         <v>5.9010046734996102</v>
       </c>
-      <c r="AF48" s="81">
+      <c r="AF48" s="77">
         <v>12402.286708654001</v>
       </c>
-      <c r="AG48" s="81" t="s">
+      <c r="AG48" s="77" t="s">
         <v>1248</v>
       </c>
-      <c r="AH48" s="81" t="s">
+      <c r="AH48" s="77" t="s">
         <v>1249</v>
       </c>
-      <c r="AI48" s="81">
+      <c r="AI48" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>11.241761701133674</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="77" t="s">
         <v>1250</v>
       </c>
-      <c r="B49" s="81">
+      <c r="B49" s="77">
         <v>30967.986629405099</v>
       </c>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="77" t="s">
         <v>547</v>
       </c>
-      <c r="D49" s="81" t="s">
+      <c r="D49" s="77" t="s">
         <v>1251</v>
       </c>
-      <c r="E49" s="81" t="s">
+      <c r="E49" s="77" t="s">
         <v>1252</v>
       </c>
-      <c r="F49" s="81" t="s">
+      <c r="F49" s="77" t="s">
         <v>1253</v>
       </c>
-      <c r="G49" s="81" t="s">
+      <c r="G49" s="77" t="s">
         <v>1254</v>
       </c>
-      <c r="H49" s="81" t="s">
+      <c r="H49" s="77" t="s">
         <v>572</v>
       </c>
-      <c r="I49" s="81">
+      <c r="I49" s="77">
         <v>18719.0899352138</v>
       </c>
-      <c r="J49" s="81">
+      <c r="J49" s="77">
         <v>22821.554464100001</v>
       </c>
-      <c r="K49" s="81" t="s">
+      <c r="K49" s="77" t="s">
         <v>1255</v>
       </c>
-      <c r="L49" s="81" t="s">
+      <c r="L49" s="77" t="s">
         <v>1256</v>
       </c>
-      <c r="M49" s="81" t="s">
+      <c r="M49" s="77" t="s">
         <v>1257</v>
       </c>
-      <c r="N49" s="81" t="s">
+      <c r="N49" s="77" t="s">
         <v>1258</v>
       </c>
-      <c r="O49" s="81" t="s">
+      <c r="O49" s="77" t="s">
         <v>1259</v>
       </c>
-      <c r="P49" s="81" t="s">
+      <c r="P49" s="77" t="s">
         <v>1260</v>
       </c>
-      <c r="Q49" s="81" t="s">
+      <c r="Q49" s="77" t="s">
         <v>1261</v>
       </c>
-      <c r="R49" s="81" t="s">
+      <c r="R49" s="77" t="s">
         <v>1262</v>
       </c>
-      <c r="S49" s="81" t="s">
+      <c r="S49" s="77" t="s">
         <v>981</v>
       </c>
-      <c r="T49" s="81" t="s">
+      <c r="T49" s="77" t="s">
         <v>1263</v>
       </c>
-      <c r="U49" s="81" t="s">
+      <c r="U49" s="77" t="s">
         <v>1264</v>
       </c>
       <c r="V49">
@@ -16729,36 +16743,63 @@
       <c r="Y49">
         <v>0</v>
       </c>
-      <c r="Z49" s="81" t="s">
+      <c r="Z49" s="77" t="s">
         <v>1265</v>
       </c>
-      <c r="AA49" s="81" t="s">
+      <c r="AA49" s="77" t="s">
         <v>1266</v>
       </c>
-      <c r="AB49" s="81" t="s">
+      <c r="AB49" s="77" t="s">
         <v>1267</v>
       </c>
       <c r="AC49">
         <v>457020</v>
       </c>
-      <c r="AD49" s="81">
+      <c r="AD49" s="77">
         <v>3615.0615069999999</v>
       </c>
-      <c r="AE49" s="81">
+      <c r="AE49" s="77">
         <v>6.5471688454637897</v>
       </c>
-      <c r="AF49" s="81">
+      <c r="AF49" s="77">
         <v>14751.438</v>
       </c>
-      <c r="AG49" s="81" t="s">
+      <c r="AG49" s="77" t="s">
         <v>1268</v>
       </c>
-      <c r="AH49" s="81" t="s">
+      <c r="AH49" s="77" t="s">
         <v>1269</v>
       </c>
-      <c r="AI49" s="81">
+      <c r="AI49" s="77">
         <f>dataRF[[#This Row],[SID]]/(dataRF[[#This Row],[NGDP]]*4) *100</f>
         <v>11.908618871910319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AD51" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AE51" s="82">
+        <v>-0.59740000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AD53">
+        <f>AD49/AE49 *AE53</f>
+        <v>3285.2032437938951</v>
+      </c>
+      <c r="AE53">
+        <f>AE49+AE51</f>
+        <v>5.9497688454637894</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AD55" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AE55">
+        <f>AD53-AD49</f>
+        <v>-329.85826320610477</v>
       </c>
     </row>
   </sheetData>
@@ -16955,10 +16996,10 @@
       <c r="P1" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="Q1" s="78" t="s">
+      <c r="Q1" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="R1" s="74" t="s">
         <v>222</v>
       </c>
     </row>
@@ -23829,7 +23870,7 @@
       <c r="P182" s="72">
         <v>15341.4</v>
       </c>
-      <c r="Q182" s="79">
+      <c r="Q182" s="75">
         <v>54355.4</v>
       </c>
       <c r="R182">
@@ -23886,7 +23927,7 @@
       <c r="P183" s="72">
         <v>14955.2</v>
       </c>
-      <c r="Q183" s="79">
+      <c r="Q183" s="75">
         <v>54305.5</v>
       </c>
       <c r="R183">
@@ -23943,7 +23984,7 @@
       <c r="P184" s="72">
         <v>14921</v>
       </c>
-      <c r="Q184" s="79">
+      <c r="Q184" s="75">
         <v>54268</v>
       </c>
       <c r="R184">
@@ -24000,7 +24041,7 @@
       <c r="P185" s="72">
         <v>14749.8</v>
       </c>
-      <c r="Q185" s="79">
+      <c r="Q185" s="75">
         <v>53481.4</v>
       </c>
       <c r="R185">
@@ -24057,7 +24098,7 @@
       <c r="P186" s="72">
         <v>14753.7</v>
       </c>
-      <c r="Q186" s="79">
+      <c r="Q186" s="75">
         <v>51480.4</v>
       </c>
       <c r="R186">
@@ -24114,7 +24155,7 @@
       <c r="P187" s="72">
         <v>14823</v>
       </c>
-      <c r="Q187" s="79">
+      <c r="Q187" s="75">
         <v>51453.7</v>
       </c>
       <c r="R187">
@@ -24171,7 +24212,7 @@
       <c r="P188" s="72">
         <v>15024.3</v>
       </c>
-      <c r="Q188" s="79">
+      <c r="Q188" s="75">
         <v>51324.3</v>
       </c>
       <c r="R188">
@@ -24228,7 +24269,7 @@
       <c r="P189" s="72">
         <v>14963.6</v>
       </c>
-      <c r="Q189" s="79">
+      <c r="Q189" s="75">
         <v>51289.8</v>
       </c>
       <c r="R189">
@@ -24285,7 +24326,7 @@
       <c r="P190" s="72">
         <v>15178.5</v>
       </c>
-      <c r="Q190" s="79">
+      <c r="Q190" s="75">
         <v>51300</v>
       </c>
       <c r="R190">
@@ -24342,7 +24383,7 @@
       <c r="P191" s="72">
         <v>14981.2</v>
       </c>
-      <c r="Q191" s="79">
+      <c r="Q191" s="75">
         <v>50226.400000000001</v>
       </c>
       <c r="R191">
@@ -24399,7 +24440,7 @@
       <c r="P192" s="72">
         <v>14788.5</v>
       </c>
-      <c r="Q192" s="79">
+      <c r="Q192" s="75">
         <v>50189.3</v>
       </c>
       <c r="R192">
@@ -24456,7 +24497,7 @@
       <c r="P193" s="72">
         <v>15249.5</v>
       </c>
-      <c r="Q193" s="79">
+      <c r="Q193" s="75">
         <v>50128.6</v>
       </c>
       <c r="R193">
@@ -24513,7 +24554,7 @@
       <c r="P194" s="72">
         <v>16515.599999999999</v>
       </c>
-      <c r="Q194" s="79">
+      <c r="Q194" s="75">
         <v>50002.3</v>
       </c>
       <c r="R194">
@@ -24570,7 +24611,7 @@
       <c r="P195" s="72">
         <v>15907.3</v>
       </c>
-      <c r="Q195" s="79">
+      <c r="Q195" s="75">
         <v>49995.5</v>
       </c>
       <c r="R195">
@@ -24627,7 +24668,7 @@
       <c r="P196" s="72">
         <v>16093.6</v>
       </c>
-      <c r="Q196" s="79">
+      <c r="Q196" s="75">
         <v>49987.4</v>
       </c>
       <c r="R196">
@@ -24684,7 +24725,7 @@
       <c r="P197" s="72">
         <v>16402</v>
       </c>
-      <c r="Q197" s="79">
+      <c r="Q197" s="75">
         <v>49363.199999999997</v>
       </c>
       <c r="R197">
@@ -24741,7 +24782,7 @@
       <c r="P198" s="72">
         <v>16310.4</v>
       </c>
-      <c r="Q198" s="79">
+      <c r="Q198" s="75">
         <v>49253.4</v>
       </c>
       <c r="R198">
@@ -24798,7 +24839,7 @@
       <c r="P199" s="72">
         <v>16736.099999999999</v>
       </c>
-      <c r="Q199" s="79">
+      <c r="Q199" s="75">
         <v>50946.5</v>
       </c>
       <c r="R199">
@@ -24855,7 +24896,7 @@
       <c r="P200" s="72">
         <v>16850.099999999999</v>
       </c>
-      <c r="Q200" s="79">
+      <c r="Q200" s="75">
         <v>50882.5</v>
       </c>
       <c r="R200">
@@ -24912,7 +24953,7 @@
       <c r="P201" s="72">
         <v>16647.2</v>
       </c>
-      <c r="Q201" s="79">
+      <c r="Q201" s="75">
         <v>50871.5</v>
       </c>
       <c r="R201">
@@ -24969,7 +25010,7 @@
       <c r="P202" s="72">
         <v>16697.400000000001</v>
       </c>
-      <c r="Q202" s="79">
+      <c r="Q202" s="75">
         <v>50864.6</v>
       </c>
       <c r="R202">
@@ -25026,7 +25067,7 @@
       <c r="P203" s="72">
         <v>16523.7</v>
       </c>
-      <c r="Q203" s="79">
+      <c r="Q203" s="75">
         <v>51475.7</v>
       </c>
       <c r="R203">
@@ -25083,7 +25124,7 @@
       <c r="P204" s="72">
         <v>16494.3</v>
       </c>
-      <c r="Q204" s="79">
+      <c r="Q204" s="75">
         <v>51442.1</v>
       </c>
       <c r="R204">
@@ -25140,7 +25181,7 @@
       <c r="P205" s="72">
         <v>16583.900000000001</v>
       </c>
-      <c r="Q205" s="79">
+      <c r="Q205" s="75">
         <v>51271.3</v>
       </c>
       <c r="R205">
@@ -25197,7 +25238,7 @@
       <c r="P206" s="72">
         <v>17642.400000000001</v>
       </c>
-      <c r="Q206" s="79">
+      <c r="Q206" s="75">
         <v>51211.8</v>
       </c>
       <c r="R206">
@@ -25254,7 +25295,7 @@
       <c r="P207" s="72">
         <v>17325.5</v>
       </c>
-      <c r="Q207" s="79">
+      <c r="Q207" s="75">
         <v>51217.2</v>
       </c>
       <c r="R207">
@@ -25311,7 +25352,7 @@
       <c r="P208" s="72">
         <v>17496.7</v>
       </c>
-      <c r="Q208" s="79">
+      <c r="Q208" s="75">
         <v>51190.400000000001</v>
       </c>
       <c r="R208">
@@ -25368,7 +25409,7 @@
       <c r="P209" s="72">
         <v>17305.900000000001</v>
       </c>
-      <c r="Q209" s="79">
+      <c r="Q209" s="75">
         <v>50558.6</v>
       </c>
       <c r="R209">
@@ -25425,7 +25466,7 @@
       <c r="P210" s="72">
         <v>17287.5</v>
       </c>
-      <c r="Q210" s="79">
+      <c r="Q210" s="75">
         <v>48556.4</v>
       </c>
       <c r="R210">
@@ -25482,7 +25523,7 @@
       <c r="P211" s="72">
         <v>17685.599999999999</v>
       </c>
-      <c r="Q211" s="79">
+      <c r="Q211" s="75">
         <v>48552.6</v>
       </c>
       <c r="R211">
@@ -25539,7 +25580,7 @@
       <c r="P212" s="72">
         <v>18040.5</v>
       </c>
-      <c r="Q212" s="79">
+      <c r="Q212" s="75">
         <v>51471.4</v>
       </c>
       <c r="R212">
@@ -25596,7 +25637,7 @@
       <c r="P213" s="72">
         <v>18058.099999999999</v>
       </c>
-      <c r="Q213" s="79">
+      <c r="Q213" s="75">
         <v>51286</v>
       </c>
       <c r="R213">
@@ -25653,7 +25694,7 @@
       <c r="P214" s="72">
         <v>18076.5</v>
       </c>
-      <c r="Q214" s="79">
+      <c r="Q214" s="75">
         <v>51094.2</v>
       </c>
       <c r="R214">
@@ -25710,7 +25751,7 @@
       <c r="P215" s="72">
         <v>18009.3</v>
       </c>
-      <c r="Q215" s="79">
+      <c r="Q215" s="75">
         <v>51230</v>
       </c>
       <c r="R215">
@@ -25767,7 +25808,7 @@
       <c r="P216" s="72">
         <v>18137.900000000001</v>
       </c>
-      <c r="Q216" s="79">
+      <c r="Q216" s="75">
         <v>51202.3</v>
       </c>
       <c r="R216">
@@ -25824,7 +25865,7 @@
       <c r="P217" s="72">
         <v>18368.099999999999</v>
       </c>
-      <c r="Q217" s="79">
+      <c r="Q217" s="75">
         <v>51172.4</v>
       </c>
       <c r="R217">
@@ -25881,7 +25922,7 @@
       <c r="P218" s="72">
         <v>19508.900000000001</v>
       </c>
-      <c r="Q218" s="79">
+      <c r="Q218" s="75">
         <v>49827.3</v>
       </c>
       <c r="R218">
@@ -25938,7 +25979,7 @@
       <c r="P219" s="72">
         <v>18864.400000000001</v>
       </c>
-      <c r="Q219" s="79">
+      <c r="Q219" s="75">
         <v>50519.5</v>
       </c>
       <c r="R219">
@@ -25995,7 +26036,7 @@
       <c r="P220" s="72">
         <v>19249.400000000001</v>
       </c>
-      <c r="Q220" s="79">
+      <c r="Q220" s="75">
         <v>50571.8</v>
       </c>
       <c r="R220">
@@ -26052,7 +26093,7 @@
       <c r="P221" s="72">
         <v>19347.7</v>
       </c>
-      <c r="Q221" s="79">
+      <c r="Q221" s="75">
         <v>51393.2</v>
       </c>
       <c r="R221">
@@ -26109,7 +26150,7 @@
       <c r="P222" s="72">
         <v>19759.2</v>
       </c>
-      <c r="Q222" s="79">
+      <c r="Q222" s="75">
         <v>51359.7</v>
       </c>
       <c r="R222">
@@ -26166,7 +26207,7 @@
       <c r="P223" s="72">
         <v>20077.599999999999</v>
       </c>
-      <c r="Q223" s="79">
+      <c r="Q223" s="75">
         <v>51114.7</v>
       </c>
       <c r="R223">
@@ -26223,7 +26264,7 @@
       <c r="P224" s="72">
         <v>20604.400000000001</v>
       </c>
-      <c r="Q224" s="79">
+      <c r="Q224" s="75">
         <v>50960.2</v>
       </c>
       <c r="R224">
@@ -26280,7 +26321,7 @@
       <c r="P225" s="72">
         <v>20669.599999999999</v>
       </c>
-      <c r="Q225" s="79">
+      <c r="Q225" s="75">
         <v>47331.5</v>
       </c>
       <c r="R225">
@@ -26337,7 +26378,7 @@
       <c r="P226" s="72">
         <v>20596.3</v>
       </c>
-      <c r="Q226" s="79">
+      <c r="Q226" s="75">
         <v>47133.9</v>
       </c>
       <c r="R226">
@@ -26394,7 +26435,7 @@
       <c r="P227" s="72">
         <v>20575.5</v>
       </c>
-      <c r="Q227" s="79">
+      <c r="Q227" s="75">
         <v>47084.2</v>
       </c>
       <c r="R227">
@@ -26451,7 +26492,7 @@
       <c r="P228" s="72">
         <v>20485</v>
       </c>
-      <c r="Q228" s="79">
+      <c r="Q228" s="75">
         <v>47195</v>
       </c>
       <c r="R228">
@@ -26508,7 +26549,7 @@
       <c r="P229" s="72">
         <v>20572.900000000001</v>
       </c>
-      <c r="Q229" s="79">
+      <c r="Q229" s="75">
         <v>47148.1</v>
       </c>
       <c r="R229">
@@ -26565,7 +26606,7 @@
       <c r="P230" s="72">
         <v>21624.1</v>
       </c>
-      <c r="Q230" s="79">
+      <c r="Q230" s="75">
         <v>49156.5</v>
       </c>
       <c r="R230">
@@ -26622,7 +26663,7 @@
       <c r="P231" s="72">
         <v>20748.3</v>
       </c>
-      <c r="Q231" s="79">
+      <c r="Q231" s="75">
         <v>47683.7</v>
       </c>
       <c r="R231">
@@ -26679,7 +26720,7 @@
       <c r="P232" s="72">
         <v>20944.099999999999</v>
       </c>
-      <c r="Q232" s="79">
+      <c r="Q232" s="75">
         <v>47557.7</v>
       </c>
       <c r="R232">
@@ -26736,7 +26777,7 @@
       <c r="P233" s="72">
         <v>20810.599999999999</v>
       </c>
-      <c r="Q233" s="79">
+      <c r="Q233" s="75">
         <v>51067.199999999997</v>
       </c>
       <c r="R233">
@@ -26793,7 +26834,7 @@
       <c r="P234" s="72">
         <v>21173.8</v>
       </c>
-      <c r="Q234" s="79">
+      <c r="Q234" s="75">
         <v>51145.8</v>
       </c>
       <c r="R234">
@@ -26850,7 +26891,7 @@
       <c r="P235" s="72">
         <v>21088.400000000001</v>
       </c>
-      <c r="Q235" s="79">
+      <c r="Q235" s="75">
         <v>51261.4</v>
       </c>
       <c r="R235">
@@ -26907,7 +26948,7 @@
       <c r="P236" s="72">
         <v>21717.7</v>
       </c>
-      <c r="Q236" s="79">
+      <c r="Q236" s="75">
         <v>53954.6</v>
       </c>
       <c r="R236">
@@ -26964,7 +27005,7 @@
       <c r="P237" s="72">
         <v>21743.8</v>
       </c>
-      <c r="Q237" s="79">
+      <c r="Q237" s="75">
         <v>53828</v>
       </c>
       <c r="R237">
@@ -27021,7 +27062,7 @@
       <c r="P238" s="72">
         <v>21953.5</v>
       </c>
-      <c r="Q238" s="79">
+      <c r="Q238" s="75">
         <v>53888.421276079993</v>
       </c>
       <c r="R238">
@@ -27078,7 +27119,7 @@
       <c r="P239" s="72">
         <v>22430</v>
       </c>
-      <c r="Q239" s="79">
+      <c r="Q239" s="75">
         <v>53625.5</v>
       </c>
       <c r="R239">
@@ -27135,7 +27176,7 @@
       <c r="P240" s="72">
         <v>22135.200000000001</v>
       </c>
-      <c r="Q240" s="79">
+      <c r="Q240" s="75">
         <v>53935.7</v>
       </c>
       <c r="R240">
@@ -27192,7 +27233,7 @@
       <c r="P241" s="72">
         <v>22527.8</v>
       </c>
-      <c r="Q241" s="79">
+      <c r="Q241" s="75">
         <v>54164.4</v>
       </c>
       <c r="R241">
@@ -27249,7 +27290,7 @@
       <c r="P242" s="72">
         <v>23861.7</v>
       </c>
-      <c r="Q242" s="79">
+      <c r="Q242" s="75">
         <v>54848.3</v>
       </c>
       <c r="R242">
@@ -27306,7 +27347,7 @@
       <c r="P243" s="72">
         <v>23357.5</v>
       </c>
-      <c r="Q243" s="79">
+      <c r="Q243" s="75">
         <v>54731.8</v>
       </c>
       <c r="R243">
@@ -27363,7 +27404,7 @@
       <c r="P244" s="72">
         <v>24023.9</v>
       </c>
-      <c r="Q244" s="79">
+      <c r="Q244" s="75">
         <v>54616.7</v>
       </c>
       <c r="R244">
@@ -27420,7 +27461,7 @@
       <c r="P245" s="72">
         <v>25136.400000000001</v>
       </c>
-      <c r="Q245" s="79">
+      <c r="Q245" s="75">
         <v>54068.4</v>
       </c>
       <c r="R245">
@@ -27477,7 +27518,7 @@
       <c r="P246" s="72">
         <v>25991.4</v>
       </c>
-      <c r="Q246" s="79">
+      <c r="Q246" s="75">
         <v>50591.199999999997</v>
       </c>
       <c r="R246">
@@ -27534,7 +27575,7 @@
       <c r="P247" s="72">
         <v>26471.4</v>
       </c>
-      <c r="Q247" s="79">
+      <c r="Q247" s="75">
         <v>50964.6</v>
       </c>
       <c r="R247">
@@ -27591,7 +27632,7 @@
       <c r="P248" s="72">
         <v>27817.3</v>
       </c>
-      <c r="Q248" s="80">
+      <c r="Q248" s="76">
         <v>51027.1</v>
       </c>
       <c r="R248">
@@ -27648,7 +27689,7 @@
       <c r="P249" s="72">
         <v>28088.2</v>
       </c>
-      <c r="Q249" s="79">
+      <c r="Q249" s="75">
         <v>51625.7</v>
       </c>
       <c r="R249">
@@ -27705,7 +27746,7 @@
       <c r="P250" s="72">
         <v>29027.4</v>
       </c>
-      <c r="Q250" s="79">
+      <c r="Q250" s="75">
         <v>51809.1</v>
       </c>
       <c r="R250">
@@ -27762,7 +27803,7 @@
       <c r="P251" s="72">
         <v>29513.5</v>
       </c>
-      <c r="Q251" s="79">
+      <c r="Q251" s="75">
         <v>50364.9</v>
       </c>
       <c r="R251">
@@ -27819,7 +27860,7 @@
       <c r="P252" s="72">
         <v>29622.3</v>
       </c>
-      <c r="Q252" s="79">
+      <c r="Q252" s="75">
         <v>51982.400000000001</v>
       </c>
       <c r="R252">
@@ -27876,7 +27917,7 @@
       <c r="P253" s="72">
         <v>30394.799999999999</v>
       </c>
-      <c r="Q253" s="79">
+      <c r="Q253" s="75">
         <v>54880.1</v>
       </c>
       <c r="R253">
@@ -27933,7 +27974,7 @@
       <c r="P254" s="72">
         <v>31785.599999999999</v>
       </c>
-      <c r="Q254" s="79">
+      <c r="Q254" s="75">
         <v>56702.9</v>
       </c>
       <c r="R254">
@@ -27990,7 +28031,7 @@
       <c r="P255" s="72">
         <v>31520.3</v>
       </c>
-      <c r="Q255" s="79">
+      <c r="Q255" s="75">
         <v>56260.1</v>
       </c>
       <c r="R255">
@@ -28047,7 +28088,7 @@
       <c r="P256" s="72">
         <v>32157.9</v>
       </c>
-      <c r="Q256" s="79">
+      <c r="Q256" s="75">
         <v>56629.3</v>
       </c>
       <c r="R256">
@@ -28104,7 +28145,7 @@
       <c r="P257" s="72">
         <v>32198.2</v>
       </c>
-      <c r="Q257" s="79">
+      <c r="Q257" s="75">
         <v>56104.6</v>
       </c>
       <c r="R257">
@@ -28161,7 +28202,7 @@
       <c r="P258" s="72">
         <v>33030.300000000003</v>
       </c>
-      <c r="Q258" s="79">
+      <c r="Q258" s="75">
         <v>56517.7</v>
       </c>
       <c r="R258">
@@ -28218,7 +28259,7 @@
       <c r="P259" s="72">
         <v>33276.699999999997</v>
       </c>
-      <c r="Q259" s="79">
+      <c r="Q259" s="75">
         <v>58149.5</v>
       </c>
       <c r="R259">
@@ -28275,7 +28316,7 @@
       <c r="P260" s="72">
         <v>33753.699999999997</v>
       </c>
-      <c r="Q260" s="79">
+      <c r="Q260" s="75">
         <v>58542.2</v>
       </c>
       <c r="R260">
@@ -28305,7 +28346,7 @@
       </c>
       <c r="N261" s="2"/>
       <c r="O261" s="53"/>
-      <c r="Q261" s="79">
+      <c r="Q261" s="75">
         <v>58691.8</v>
       </c>
       <c r="R261">
@@ -28314,16 +28355,16 @@
       </c>
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q262" s="79"/>
+      <c r="Q262" s="75"/>
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q263" s="79"/>
+      <c r="Q263" s="75"/>
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q264" s="79"/>
+      <c r="Q264" s="75"/>
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q265" s="79"/>
+      <c r="Q265" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
